--- a/Development tools/v3 - dev version/data/results/xlsx/Conduction_Velocity_Summary.xlsx
+++ b/Development tools/v3 - dev version/data/results/xlsx/Conduction_Velocity_Summary.xlsx
@@ -7,20 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="A1 Channel 6" sheetId="1" r:id="rId1"/>
-    <sheet name="A3 Channel 1" sheetId="2" r:id="rId2"/>
-    <sheet name="A3 Channel 2" sheetId="3" r:id="rId3"/>
+    <sheet name="A1 Channel 8" sheetId="1" r:id="rId1"/>
+    <sheet name="A3 Channel 3" sheetId="2" r:id="rId2"/>
+    <sheet name="A3 Channel 5" sheetId="3" r:id="rId3"/>
     <sheet name="A3 Channel 6" sheetId="4" r:id="rId4"/>
-    <sheet name="B3 Channel 2" sheetId="5" r:id="rId5"/>
-    <sheet name="B3 Channel 3" sheetId="6" r:id="rId6"/>
-    <sheet name="B3 Channel 4" sheetId="7" r:id="rId7"/>
+    <sheet name="A3 Channel 7" sheetId="5" r:id="rId5"/>
+    <sheet name="B3 Channel 1" sheetId="6" r:id="rId6"/>
+    <sheet name="B3 Channel 2" sheetId="7" r:id="rId7"/>
+    <sheet name="B3 Channel 3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="107">
   <si>
     <t>Statistic</t>
   </si>
@@ -67,193 +68,280 @@
     <t>Electrode Pair</t>
   </si>
   <si>
-    <t>A1 61-&gt;A1 62</t>
-  </si>
-  <si>
-    <t>A1 61-&gt;A1 63</t>
-  </si>
-  <si>
-    <t>A1 61-&gt;A1 64</t>
-  </si>
-  <si>
-    <t>A1 61-&gt;A1 65</t>
-  </si>
-  <si>
-    <t>A1 62-&gt;A1 63</t>
-  </si>
-  <si>
-    <t>A1 62-&gt;A1 64</t>
-  </si>
-  <si>
-    <t>A1 62-&gt;A1 65</t>
-  </si>
-  <si>
-    <t>A1 63-&gt;A1 64</t>
-  </si>
-  <si>
-    <t>A1 63-&gt;A1 65</t>
-  </si>
-  <si>
-    <t>A1 64-&gt;A1 65</t>
-  </si>
-  <si>
-    <t>A3 11-&gt;A3 12</t>
-  </si>
-  <si>
-    <t>A3 11-&gt;A3 13</t>
-  </si>
-  <si>
-    <t>A3 11-&gt;A3 14</t>
-  </si>
-  <si>
-    <t>A3 11-&gt;A3 15</t>
-  </si>
-  <si>
-    <t>A3 12-&gt;A3 13</t>
-  </si>
-  <si>
-    <t>A3 12-&gt;A3 14</t>
-  </si>
-  <si>
-    <t>A3 12-&gt;A3 15</t>
-  </si>
-  <si>
-    <t>A3 13-&gt;A3 14</t>
-  </si>
-  <si>
-    <t>A3 13-&gt;A3 15</t>
-  </si>
-  <si>
-    <t>A3 14-&gt;A3 15</t>
-  </si>
-  <si>
-    <t>A3 21-&gt;A3 22</t>
-  </si>
-  <si>
-    <t>A3 21-&gt;A3 23</t>
-  </si>
-  <si>
-    <t>A3 22-&gt;A3 23</t>
-  </si>
-  <si>
-    <t>A3 61-&gt;A3 62</t>
-  </si>
-  <si>
-    <t>A3 61-&gt;A3 63</t>
-  </si>
-  <si>
-    <t>A3 62-&gt;A3 63</t>
-  </si>
-  <si>
-    <t>B3 21-&gt;B3 22</t>
-  </si>
-  <si>
-    <t>B3 21-&gt;B3 23</t>
-  </si>
-  <si>
-    <t>B3 21-&gt;B3 24</t>
-  </si>
-  <si>
-    <t>B3 22-&gt;B3 23</t>
-  </si>
-  <si>
-    <t>B3 22-&gt;B3 24</t>
-  </si>
-  <si>
-    <t>B3 23-&gt;B3 24</t>
-  </si>
-  <si>
-    <t>B3 31-&gt;B3 32</t>
-  </si>
-  <si>
-    <t>B3 31-&gt;B3 33</t>
-  </si>
-  <si>
-    <t>B3 31-&gt;B3 34</t>
-  </si>
-  <si>
-    <t>B3 31-&gt;B3 35</t>
-  </si>
-  <si>
-    <t>B3 32-&gt;B3 33</t>
-  </si>
-  <si>
-    <t>B3 32-&gt;B3 34</t>
-  </si>
-  <si>
-    <t>B3 32-&gt;B3 35</t>
-  </si>
-  <si>
-    <t>B3 33-&gt;B3 34</t>
-  </si>
-  <si>
-    <t>B3 33-&gt;B3 35</t>
-  </si>
-  <si>
-    <t>B3 34-&gt;B3 35</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 42</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 43</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 44</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 45</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 46</t>
-  </si>
-  <si>
-    <t>B3 41-&gt;B3 47</t>
-  </si>
-  <si>
-    <t>B3 42-&gt;B3 43</t>
-  </si>
-  <si>
-    <t>B3 42-&gt;B3 44</t>
-  </si>
-  <si>
-    <t>B3 42-&gt;B3 45</t>
-  </si>
-  <si>
-    <t>B3 42-&gt;B3 46</t>
-  </si>
-  <si>
-    <t>B3 42-&gt;B3 47</t>
-  </si>
-  <si>
-    <t>B3 43-&gt;B3 44</t>
-  </si>
-  <si>
-    <t>B3 43-&gt;B3 45</t>
-  </si>
-  <si>
-    <t>B3 43-&gt;B3 46</t>
-  </si>
-  <si>
-    <t>B3 43-&gt;B3 47</t>
-  </si>
-  <si>
-    <t>B3 44-&gt;B3 45</t>
-  </si>
-  <si>
-    <t>B3 44-&gt;B3 46</t>
-  </si>
-  <si>
-    <t>B3 44-&gt;B3 47</t>
-  </si>
-  <si>
-    <t>B3 45-&gt;B3 46</t>
-  </si>
-  <si>
-    <t>B3 45-&gt;B3 47</t>
-  </si>
-  <si>
-    <t>B3 46-&gt;B3 47</t>
+    <t>A1 85-&gt;A1 84</t>
+  </si>
+  <si>
+    <t>A1 86-&gt;A1 84</t>
+  </si>
+  <si>
+    <t>A1 86-&gt;A1 85</t>
+  </si>
+  <si>
+    <t>A1 87-&gt;A1 84</t>
+  </si>
+  <si>
+    <t>A1 87-&gt;A1 85</t>
+  </si>
+  <si>
+    <t>A1 87-&gt;A1 86</t>
+  </si>
+  <si>
+    <t>A1 88-&gt;A1 84</t>
+  </si>
+  <si>
+    <t>A1 88-&gt;A1 85</t>
+  </si>
+  <si>
+    <t>A1 88-&gt;A1 86</t>
+  </si>
+  <si>
+    <t>A1 88-&gt;A1 87</t>
+  </si>
+  <si>
+    <t>A3 33-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 34-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 34-&gt;A3 33</t>
+  </si>
+  <si>
+    <t>A3 35-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 35-&gt;A3 33</t>
+  </si>
+  <si>
+    <t>A3 35-&gt;A3 34</t>
+  </si>
+  <si>
+    <t>A3 36-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 36-&gt;A3 33</t>
+  </si>
+  <si>
+    <t>A3 36-&gt;A3 34</t>
+  </si>
+  <si>
+    <t>A3 36-&gt;A3 35</t>
+  </si>
+  <si>
+    <t>A3 37-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 37-&gt;A3 33</t>
+  </si>
+  <si>
+    <t>A3 37-&gt;A3 34</t>
+  </si>
+  <si>
+    <t>A3 37-&gt;A3 35</t>
+  </si>
+  <si>
+    <t>A3 37-&gt;A3 36</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 32</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 33</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 34</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 35</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 36</t>
+  </si>
+  <si>
+    <t>A3 38-&gt;A3 37</t>
+  </si>
+  <si>
+    <t>A3 54-&gt;A3 53</t>
+  </si>
+  <si>
+    <t>A3 55-&gt;A3 53</t>
+  </si>
+  <si>
+    <t>A3 55-&gt;A3 54</t>
+  </si>
+  <si>
+    <t>A3 56-&gt;A3 53</t>
+  </si>
+  <si>
+    <t>A3 56-&gt;A3 54</t>
+  </si>
+  <si>
+    <t>A3 56-&gt;A3 55</t>
+  </si>
+  <si>
+    <t>A3 57-&gt;A3 53</t>
+  </si>
+  <si>
+    <t>A3 57-&gt;A3 54</t>
+  </si>
+  <si>
+    <t>A3 57-&gt;A3 55</t>
+  </si>
+  <si>
+    <t>A3 57-&gt;A3 56</t>
+  </si>
+  <si>
+    <t>A3 58-&gt;A3 53</t>
+  </si>
+  <si>
+    <t>A3 58-&gt;A3 54</t>
+  </si>
+  <si>
+    <t>A3 58-&gt;A3 55</t>
+  </si>
+  <si>
+    <t>A3 58-&gt;A3 56</t>
+  </si>
+  <si>
+    <t>A3 58-&gt;A3 57</t>
+  </si>
+  <si>
+    <t>A3 63-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 64-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 64-&gt;A3 63</t>
+  </si>
+  <si>
+    <t>A3 65-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 65-&gt;A3 63</t>
+  </si>
+  <si>
+    <t>A3 65-&gt;A3 64</t>
+  </si>
+  <si>
+    <t>A3 66-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 66-&gt;A3 63</t>
+  </si>
+  <si>
+    <t>A3 66-&gt;A3 64</t>
+  </si>
+  <si>
+    <t>A3 66-&gt;A3 65</t>
+  </si>
+  <si>
+    <t>A3 67-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 67-&gt;A3 63</t>
+  </si>
+  <si>
+    <t>A3 67-&gt;A3 64</t>
+  </si>
+  <si>
+    <t>A3 67-&gt;A3 65</t>
+  </si>
+  <si>
+    <t>A3 67-&gt;A3 66</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 62</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 63</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 64</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 65</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 66</t>
+  </si>
+  <si>
+    <t>A3 68-&gt;A3 67</t>
+  </si>
+  <si>
+    <t>A3 75-&gt;A3 74</t>
+  </si>
+  <si>
+    <t>A3 76-&gt;A3 74</t>
+  </si>
+  <si>
+    <t>A3 76-&gt;A3 75</t>
+  </si>
+  <si>
+    <t>A3 77-&gt;A3 74</t>
+  </si>
+  <si>
+    <t>A3 77-&gt;A3 75</t>
+  </si>
+  <si>
+    <t>A3 77-&gt;A3 76</t>
+  </si>
+  <si>
+    <t>A3 78-&gt;A3 74</t>
+  </si>
+  <si>
+    <t>A3 78-&gt;A3 75</t>
+  </si>
+  <si>
+    <t>A3 78-&gt;A3 76</t>
+  </si>
+  <si>
+    <t>A3 78-&gt;A3 77</t>
+  </si>
+  <si>
+    <t>B3 17-&gt;B3 16</t>
+  </si>
+  <si>
+    <t>B3 18-&gt;B3 16</t>
+  </si>
+  <si>
+    <t>B3 18-&gt;B3 17</t>
+  </si>
+  <si>
+    <t>B3 26-&gt;B3 25</t>
+  </si>
+  <si>
+    <t>B3 27-&gt;B3 25</t>
+  </si>
+  <si>
+    <t>B3 27-&gt;B3 26</t>
+  </si>
+  <si>
+    <t>B3 28-&gt;B3 25</t>
+  </si>
+  <si>
+    <t>B3 28-&gt;B3 26</t>
+  </si>
+  <si>
+    <t>B3 28-&gt;B3 27</t>
+  </si>
+  <si>
+    <t>B3 36-&gt;B3 35</t>
+  </si>
+  <si>
+    <t>B3 37-&gt;B3 35</t>
+  </si>
+  <si>
+    <t>B3 37-&gt;B3 36</t>
+  </si>
+  <si>
+    <t>B3 38-&gt;B3 35</t>
+  </si>
+  <si>
+    <t>B3 38-&gt;B3 36</t>
+  </si>
+  <si>
+    <t>B3 38-&gt;B3 37</t>
   </si>
 </sst>
 </file>
@@ -717,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -741,37 +829,37 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.0002059259259257042</v>
+        <v>0.0001284210526316519</v>
       </c>
       <c r="L4">
-        <v>0.0001268265569253494</v>
+        <v>8.96370850572525E-05</v>
       </c>
       <c r="M4">
-        <v>7.999999999697138E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001599999999997159</v>
+        <v>8.000000000008001E-05</v>
       </c>
       <c r="O4">
-        <v>0.00016000000000016</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="P4">
-        <v>0.0002399999999993518</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="Q4">
-        <v>0.0007199999999976114</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="R4">
-        <v>1.456834532375669</v>
+        <v>2.336065573769165</v>
       </c>
       <c r="S4">
-        <v>1.74318811631788</v>
+        <v>2.770897277204152</v>
       </c>
       <c r="T4">
-        <v>1.251285767596367</v>
+        <v>2.019196811964057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -779,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -803,37 +891,37 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.0003170370370371156</v>
+        <v>0.0003157894736842941</v>
       </c>
       <c r="L5">
-        <v>0.0001380952587497518</v>
+        <v>7.605722683888498E-05</v>
       </c>
       <c r="M5">
         <v>0.00016000000000016</v>
       </c>
       <c r="N5">
-        <v>0.0002399999999997959</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="O5">
-        <v>0.0002400000000015723</v>
+        <v>0.0003199999999994319</v>
       </c>
       <c r="P5">
-        <v>0.000320000000000209</v>
+        <v>0.0003400000000013392</v>
       </c>
       <c r="Q5">
-        <v>0.0007999999999981355</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="R5">
-        <v>1.892523364485512</v>
+        <v>1.899999999999497</v>
       </c>
       <c r="S5">
-        <v>2.14129733359653</v>
+        <v>2.008773494587034</v>
       </c>
       <c r="T5">
-        <v>1.695537379805871</v>
+        <v>1.802401391433637</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -841,61 +929,61 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J6">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>0.0004637037037037316</v>
+        <v>0.0001873684210526422</v>
       </c>
       <c r="L6">
-        <v>0.0001683694981595989</v>
+        <v>6.603773509254714E-05</v>
       </c>
       <c r="M6">
-        <v>0.0003199999999985437</v>
+        <v>7.999999999697138E-05</v>
       </c>
       <c r="N6">
-        <v>0.0003999999999990678</v>
+        <v>0.0001600000000001045</v>
       </c>
       <c r="O6">
-        <v>0.0003999999999999559</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="P6">
-        <v>0.0005400000000008731</v>
+        <v>0.0002399999999998237</v>
       </c>
       <c r="Q6">
-        <v>0.001199999999997203</v>
+        <v>0.0003200000000020964</v>
       </c>
       <c r="R6">
-        <v>1.940894568689979</v>
+        <v>1.601123595505527</v>
       </c>
       <c r="S6">
-        <v>2.149018594199968</v>
+        <v>1.738915439285529</v>
       </c>
       <c r="T6">
-        <v>1.769523185665249</v>
+        <v>1.483565692717409</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -903,61 +991,61 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J7">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.0006014814814814909</v>
+        <v>0.0004631578947369342</v>
       </c>
       <c r="L7">
-        <v>0.0001830497139133604</v>
+        <v>7.426458153244043E-05</v>
       </c>
       <c r="M7">
         <v>0.0003199999999985437</v>
       </c>
       <c r="N7">
-        <v>0.000480000000000036</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="O7">
-        <v>0.000560000000000116</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="P7">
-        <v>0.0006400000000000849</v>
+        <v>0.0004800000000031446</v>
       </c>
       <c r="Q7">
-        <v>0.001359999999998251</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="R7">
-        <v>1.995073891625585</v>
+        <v>1.943181818181432</v>
       </c>
       <c r="S7">
-        <v>2.171324541139638</v>
+        <v>2.015852753254984</v>
       </c>
       <c r="T7">
-        <v>1.845288244449092</v>
+        <v>1.875568105904993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -965,61 +1053,61 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J8">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.0001111111111114114</v>
+        <v>0.0003347368421052824</v>
       </c>
       <c r="L8">
-        <v>6.101860732820637E-05</v>
+        <v>7.806789667498009E-05</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="N8">
-        <v>8.000000000008001E-05</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="O8">
-        <v>8.00000000005241E-05</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="P8">
-        <v>0.0001600000000008261</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="Q8">
-        <v>0.0002400000000015723</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="R8">
-        <v>2.699999999992703</v>
+        <v>1.792452830188576</v>
       </c>
       <c r="S8">
-        <v>3.163352588238726</v>
+        <v>1.891640296389104</v>
       </c>
       <c r="T8">
-        <v>2.355044474968889</v>
+        <v>1.703148844253044</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1027,61 +1115,61 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.0002577777777780274</v>
+        <v>0.0001473684210526402</v>
       </c>
       <c r="L9">
-        <v>8.464502273728178E-05</v>
+        <v>5.550659831181868E-05</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.0001399999999964763</v>
+      </c>
+      <c r="O9">
         <v>0.00016000000000016</v>
       </c>
-      <c r="N9">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="O9">
-        <v>0.0002399999999997959</v>
-      </c>
       <c r="P9">
-        <v>0.0002400000000015723</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="Q9">
-        <v>0.000560000000000116</v>
+        <v>0.000240000000005125</v>
       </c>
       <c r="R9">
-        <v>2.327586206894298</v>
+        <v>2.035714285714167</v>
       </c>
       <c r="S9">
-        <v>2.551008806027373</v>
+        <v>2.224050625674806</v>
       </c>
       <c r="T9">
-        <v>2.140147671170058</v>
+        <v>1.876784983227241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1089,61 +1177,61 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="I10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.0003955555555557867</v>
+        <v>0.0006168421052631203</v>
       </c>
       <c r="L10">
-        <v>0.0001000125778252286</v>
+        <v>9.672242795841381E-05</v>
       </c>
       <c r="M10">
-        <v>0.00024000000000024</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="N10">
-        <v>0.0003199999999998759</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="O10">
-        <v>0.0003999999999999559</v>
+        <v>0.0006399999999979755</v>
       </c>
       <c r="P10">
-        <v>0.0004799999999995919</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="Q10">
-        <v>0.0006400000000006401</v>
+        <v>0.00119999999999898</v>
       </c>
       <c r="R10">
-        <v>2.275280898875075</v>
+        <v>1.945392491467695</v>
       </c>
       <c r="S10">
-        <v>2.439817964994015</v>
+        <v>2.016480522541589</v>
       </c>
       <c r="T10">
-        <v>2.131533967590755</v>
+        <v>1.879145985864388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1151,61 +1239,61 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J11">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K11">
-        <v>0.000146666666666616</v>
+        <v>0.0004884210526314685</v>
       </c>
       <c r="L11">
-        <v>8.47638228277823E-05</v>
+        <v>6.607173135486167E-05</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="N11">
-        <v>8.00000000005241E-05</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="O11">
-        <v>0.0001599999999997159</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="P11">
-        <v>0.0001600000000010482</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="Q11">
-        <v>0.0003999999999999559</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="R11">
-        <v>2.045454545455252</v>
+        <v>1.84267241379352</v>
       </c>
       <c r="S11">
-        <v>2.418218432677284</v>
+        <v>1.900473006615549</v>
       </c>
       <c r="T11">
-        <v>1.772263424872525</v>
+        <v>1.788283916739455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1213,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>600</v>
@@ -1237,37 +1325,37 @@
         <v>600</v>
       </c>
       <c r="J12">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.0002844444444443753</v>
+        <v>0.0003010526315788263</v>
       </c>
       <c r="L12">
-        <v>0.0001015106029718647</v>
+        <v>6.109182045331773E-05</v>
       </c>
       <c r="M12">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001599999999974955</v>
       </c>
       <c r="N12">
-        <v>0.0002399999999980196</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="O12">
-        <v>0.0002400000000009062</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="P12">
-        <v>0.0003200000000020964</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="Q12">
-        <v>0.000560000000000116</v>
+        <v>0.0005599999999983396</v>
       </c>
       <c r="R12">
-        <v>2.109375000000512</v>
+        <v>1.993006993007794</v>
       </c>
       <c r="S12">
-        <v>2.331280278410454</v>
+        <v>2.088282016057107</v>
       </c>
       <c r="T12">
-        <v>1.926042674077046</v>
+        <v>1.90604622953996</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1275,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>300</v>
@@ -1299,37 +1387,37 @@
         <v>300</v>
       </c>
       <c r="J13">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.0001377777777777593</v>
+        <v>0.0001536842105261861</v>
       </c>
       <c r="L13">
-        <v>7.520203396177152E-05</v>
+        <v>7.127116490802252E-05</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.000000000008001E-05</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="O13">
-        <v>0.0001599999999983837</v>
+        <v>0.0001599999999998269</v>
       </c>
       <c r="P13">
         <v>0.0001600000000010482</v>
       </c>
       <c r="Q13">
-        <v>0.0003200000000020964</v>
+        <v>0.0005599999999983396</v>
       </c>
       <c r="R13">
-        <v>2.177419354839002</v>
+        <v>1.952054794522195</v>
       </c>
       <c r="S13">
-        <v>2.548425941549251</v>
+        <v>2.179274398702343</v>
       </c>
       <c r="T13">
-        <v>1.900709098699852</v>
+        <v>1.767743045887869</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1538,7 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -1474,37 +1562,37 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K4">
-        <v>0.0001063414634145801</v>
+        <v>0.0001794594594592568</v>
       </c>
       <c r="L4">
-        <v>5.629534540165123E-05</v>
+        <v>7.777258689343766E-05</v>
       </c>
       <c r="M4">
-        <v>7.999999999697138E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001599999999974955</v>
       </c>
       <c r="O4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="P4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0002399999999997959</v>
       </c>
       <c r="Q4">
-        <v>0.0004000000000000115</v>
+        <v>0.000480000000000036</v>
       </c>
       <c r="R4">
-        <v>2.821100917432628</v>
+        <v>1.67168674698984</v>
       </c>
       <c r="S4">
-        <v>3.186182238160411</v>
+        <v>1.772748518017182</v>
       </c>
       <c r="T4">
-        <v>2.531082665685322</v>
+        <v>1.581526273306095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1512,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -1536,37 +1624,37 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K5">
-        <v>0.0002117073170731096</v>
+        <v>0.0003668468468468339</v>
       </c>
       <c r="L5">
-        <v>0.000140192151010982</v>
+        <v>6.972449963783276E-05</v>
       </c>
       <c r="M5">
-        <v>7.999999999697138E-05</v>
+        <v>0.0002399999999980196</v>
       </c>
       <c r="N5">
-        <v>0.00016000000000016</v>
+        <v>0.0003199999999999315</v>
       </c>
       <c r="O5">
-        <v>0.0001600000000010482</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="P5">
-        <v>0.0002399999999997959</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="Q5">
-        <v>0.001280000000000003</v>
+        <v>0.0006399999999999739</v>
       </c>
       <c r="R5">
-        <v>2.834101382489297</v>
+        <v>1.635559921414596</v>
       </c>
       <c r="S5">
-        <v>3.308276519744072</v>
+        <v>1.677501336053072</v>
       </c>
       <c r="T5">
-        <v>2.478813190094504</v>
+        <v>1.595664614168959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1574,61 +1662,61 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K6">
-        <v>0.0003463414634144884</v>
+        <v>0.0001873873873875771</v>
       </c>
       <c r="L6">
-        <v>0.0001691482817605464</v>
+        <v>5.272161519697459E-05</v>
       </c>
       <c r="M6">
-        <v>0.0001599999999974955</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0002400000000015723</v>
+        <v>0.00016000000000016</v>
       </c>
       <c r="O6">
-        <v>0.00032000000000032</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="P6">
-        <v>0.0003200000000020964</v>
+        <v>0.0002399999999997959</v>
       </c>
       <c r="Q6">
-        <v>0.001360000000000028</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="R6">
-        <v>2.598591549296868</v>
+        <v>1.600961538459918</v>
       </c>
       <c r="S6">
-        <v>2.905756347595349</v>
+        <v>1.662491606638353</v>
       </c>
       <c r="T6">
-        <v>2.35015848391647</v>
+        <v>1.54382346760419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1636,61 +1724,61 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J7">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K7">
-        <v>0.0005024390243901825</v>
+        <v>0.0005210810810809866</v>
       </c>
       <c r="L7">
-        <v>0.0002217860217551785</v>
+        <v>6.709689557726677E-05</v>
       </c>
       <c r="M7">
         <v>0.0003199999999985437</v>
       </c>
       <c r="N7">
-        <v>0.0003999999999990678</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="O7">
-        <v>0.0004799999999995919</v>
+        <v>0.0005199999999998539</v>
       </c>
       <c r="P7">
-        <v>0.0005599999999998939</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="Q7">
-        <v>0.001760000000000039</v>
+        <v>0.0007200000000000539</v>
       </c>
       <c r="R7">
-        <v>2.388349514563398</v>
+        <v>1.727178423236828</v>
       </c>
       <c r="S7">
-        <v>2.640645316674959</v>
+        <v>1.75693844549191</v>
       </c>
       <c r="T7">
-        <v>2.180059566113883</v>
+        <v>1.698409792579836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1698,61 +1786,61 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J8">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K8">
-        <v>0.0001053658536585296</v>
+        <v>0.0003416216216217298</v>
       </c>
       <c r="L8">
-        <v>9.968091217344298E-05</v>
+        <v>5.534818689744256E-05</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0001599999999974955</v>
       </c>
       <c r="N8">
-        <v>7.999999999963592E-05</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="O8">
-        <v>8.00000000005241E-05</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="P8">
-        <v>0.0001399999999982526</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="Q8">
-        <v>0.0008799999999999919</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="R8">
-        <v>2.847222222222412</v>
+        <v>1.756329113923494</v>
       </c>
       <c r="S8">
-        <v>3.58036500200027</v>
+        <v>1.794576306501853</v>
       </c>
       <c r="T8">
-        <v>2.363295793837727</v>
+        <v>1.719678199154604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1760,61 +1848,61 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I9">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J9">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K9">
-        <v>0.0002399999999999083</v>
+        <v>0.0001542342342341527</v>
       </c>
       <c r="L9">
-        <v>0.0001275795563947063</v>
+        <v>3.912040930914956E-05</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.999999999697138E-05</v>
       </c>
       <c r="N9">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="O9">
+        <v>0.00016000000000016</v>
+      </c>
+      <c r="P9">
         <v>0.0001600000000010482</v>
       </c>
-      <c r="O9">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.0002400000000015723</v>
       </c>
-      <c r="Q9">
-        <v>0.0009600000000000164</v>
-      </c>
       <c r="R9">
-        <v>2.500000000000955</v>
+        <v>1.945093457944953</v>
       </c>
       <c r="S9">
-        <v>2.825045736956945</v>
+        <v>2.012233333453621</v>
       </c>
       <c r="T9">
-        <v>2.242034684034786</v>
+        <v>1.882289276350096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1822,61 +1910,61 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="F10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="I10">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="J10">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K10">
-        <v>0.0003960975609756024</v>
+        <v>0.000660180180179981</v>
       </c>
       <c r="L10">
-        <v>0.0001821256932509413</v>
+        <v>6.40980863463194E-05</v>
       </c>
       <c r="M10">
-        <v>0.00016000000000016</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="N10">
-        <v>0.0003199999999985437</v>
+        <v>0.0006399999999988637</v>
       </c>
       <c r="O10">
-        <v>0.0003200000000020964</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="P10">
-        <v>0.0004000000000026205</v>
+        <v>0.0007199999999993878</v>
       </c>
       <c r="Q10">
-        <v>0.001360000000000028</v>
+        <v>0.0008799999999999919</v>
       </c>
       <c r="R10">
-        <v>2.272167487684771</v>
+        <v>1.817685589520199</v>
       </c>
       <c r="S10">
-        <v>2.523289816277004</v>
+        <v>1.841201592575613</v>
       </c>
       <c r="T10">
-        <v>2.066505184946453</v>
+        <v>1.794762708341254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1884,61 +1972,61 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I11">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J11">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K11">
-        <v>0.0001346341463413787</v>
+        <v>0.0004807207207207243</v>
       </c>
       <c r="L11">
-        <v>9.396867250439774E-05</v>
+        <v>5.161135151231199E-05</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="N11">
-        <v>8.00000000005241E-05</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="O11">
-        <v>0.0001599999999974955</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="P11">
-        <v>0.0001600000000008261</v>
+        <v>0.0004800000000013682</v>
       </c>
       <c r="Q11">
-        <v>0.000560000000000116</v>
+        <v>0.0006400000000041928</v>
       </c>
       <c r="R11">
-        <v>2.228260869566619</v>
+        <v>1.872188905547213</v>
       </c>
       <c r="S11">
-        <v>2.624786215187141</v>
+        <v>1.899008918181313</v>
       </c>
       <c r="T11">
-        <v>1.935817705842917</v>
+        <v>1.84611590950029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1946,7 +2034,7 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C12">
         <v>600</v>
@@ -1970,37 +2058,37 @@
         <v>600</v>
       </c>
       <c r="J12">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K12">
-        <v>0.0002907317073170728</v>
+        <v>0.0002933333333331472</v>
       </c>
       <c r="L12">
-        <v>0.0001368497462780839</v>
+        <v>4.074716953405922E-05</v>
       </c>
       <c r="M12">
-        <v>7.999999999963592E-05</v>
+        <v>0.00016000000000016</v>
       </c>
       <c r="N12">
-        <v>0.0002399999999980196</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="O12">
-        <v>0.0002400000000015723</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="P12">
         <v>0.00032000000000032</v>
       </c>
       <c r="Q12">
-        <v>0.0008800000000022123</v>
+        <v>0.0003999999999999559</v>
       </c>
       <c r="R12">
-        <v>2.063758389261747</v>
+        <v>2.045454545455843</v>
       </c>
       <c r="S12">
-        <v>2.297871947840997</v>
+        <v>2.083527345479876</v>
       </c>
       <c r="T12">
-        <v>1.872938252522128</v>
+        <v>2.008748202824588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2008,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C13">
         <v>300</v>
@@ -2032,37 +2120,719 @@
         <v>300</v>
       </c>
       <c r="J13">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K13">
-        <v>0.0001560975609756941</v>
+        <v>0.0001390990990989944</v>
       </c>
       <c r="L13">
-        <v>0.0001158304006831104</v>
+        <v>3.603792747057648E-05</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.999999999697138E-05</v>
       </c>
       <c r="N13">
-        <v>7.999999999985796E-05</v>
+        <v>8.000000000141227E-05</v>
       </c>
       <c r="O13">
-        <v>0.0001599999999983837</v>
+        <v>0.0001599999999992718</v>
       </c>
       <c r="P13">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="R13">
+        <v>2.156735751296959</v>
+      </c>
+      <c r="S13">
+        <v>2.232833428262556</v>
+      </c>
+      <c r="T13">
+        <v>2.085654123902047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>222</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1500</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>222</v>
+      </c>
+      <c r="K14">
+        <v>0.0007816216216214915</v>
+      </c>
+      <c r="L14">
+        <v>6.705897371503542E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="N14">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="O14">
+        <v>0.0007999999999981355</v>
+      </c>
+      <c r="P14">
+        <v>0.0008000000000016882</v>
+      </c>
+      <c r="Q14">
+        <v>0.00103999999999993</v>
+      </c>
+      <c r="R14">
+        <v>1.91908713692978</v>
+      </c>
+      <c r="S14">
+        <v>1.940993179713973</v>
+      </c>
+      <c r="T14">
+        <v>1.89767003897267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>222</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>1200</v>
+      </c>
+      <c r="H15">
+        <v>1200</v>
+      </c>
+      <c r="I15">
+        <v>1200</v>
+      </c>
+      <c r="J15">
+        <v>222</v>
+      </c>
+      <c r="K15">
+        <v>0.0006021621621622348</v>
+      </c>
+      <c r="L15">
+        <v>5.523139977493324E-05</v>
+      </c>
+      <c r="M15">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="N15">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="O15">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="P15">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007999999999981355</v>
+      </c>
+      <c r="R15">
+        <v>1.992818671453979</v>
+      </c>
+      <c r="S15">
+        <v>2.017157063760431</v>
+      </c>
+      <c r="T15">
+        <v>1.969060596226659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>900</v>
+      </c>
+      <c r="F16">
+        <v>900</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="I16">
+        <v>900</v>
+      </c>
+      <c r="J16">
+        <v>222</v>
+      </c>
+      <c r="K16">
+        <v>0.0004147747747746577</v>
+      </c>
+      <c r="L16">
+        <v>3.859165142744592E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="N16">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O16">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="P16">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="Q16">
+        <v>0.0004800000000031446</v>
+      </c>
+      <c r="R16">
+        <v>2.169852302346399</v>
+      </c>
+      <c r="S16">
+        <v>2.19673910080308</v>
+      </c>
+      <c r="T16">
+        <v>2.143615703126461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>222</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17">
+        <v>600</v>
+      </c>
+      <c r="J17">
+        <v>222</v>
+      </c>
+      <c r="K17">
+        <v>0.000260540540540505</v>
+      </c>
+      <c r="L17">
+        <v>3.502650161078998E-05</v>
+      </c>
+      <c r="M17">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N17">
         <v>0.0002399999999997959</v>
       </c>
-      <c r="Q13">
+      <c r="O17">
+        <v>0.0002400000000006841</v>
+      </c>
+      <c r="P17">
+        <v>0.0003199999999976555</v>
+      </c>
+      <c r="Q17">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="R17">
+        <v>2.302904564315667</v>
+      </c>
+      <c r="S17">
+        <v>2.344364261850368</v>
+      </c>
+      <c r="T17">
+        <v>2.262885800017391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>222</v>
+      </c>
+      <c r="K18">
+        <v>0.0001214414414415105</v>
+      </c>
+      <c r="L18">
+        <v>4.006435652769754E-05</v>
+      </c>
+      <c r="M18">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N18">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O18">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P18">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q18">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="R18">
+        <v>2.470326409494144</v>
+      </c>
+      <c r="S18">
+        <v>2.582397591021937</v>
+      </c>
+      <c r="T18">
+        <v>2.367577993074628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>222</v>
+      </c>
+      <c r="C19">
+        <v>1800</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1800</v>
+      </c>
+      <c r="F19">
+        <v>1800</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+      <c r="H19">
+        <v>1800</v>
+      </c>
+      <c r="I19">
+        <v>1800</v>
+      </c>
+      <c r="J19">
+        <v>222</v>
+      </c>
+      <c r="K19">
+        <v>0.0009120720720720507</v>
+      </c>
+      <c r="L19">
+        <v>6.663355747075751E-05</v>
+      </c>
+      <c r="M19">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="N19">
+        <v>0.0008799999999986596</v>
+      </c>
+      <c r="O19">
+        <v>0.0008800000000022123</v>
+      </c>
+      <c r="P19">
+        <v>0.0009599999999991837</v>
+      </c>
+      <c r="Q19">
+        <v>0.00112000000000001</v>
+      </c>
+      <c r="R19">
+        <v>1.973528249703721</v>
+      </c>
+      <c r="S19">
+        <v>1.992678776358846</v>
+      </c>
+      <c r="T19">
+        <v>1.954742309319031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>1500</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <v>1500</v>
+      </c>
+      <c r="G20">
+        <v>1500</v>
+      </c>
+      <c r="H20">
+        <v>1500</v>
+      </c>
+      <c r="I20">
+        <v>1500</v>
+      </c>
+      <c r="J20">
+        <v>222</v>
+      </c>
+      <c r="K20">
+        <v>0.0007326126126127939</v>
+      </c>
+      <c r="L20">
+        <v>5.526917613969477E-05</v>
+      </c>
+      <c r="M20">
         <v>0.000560000000000116</v>
       </c>
-      <c r="R13">
-        <v>1.921874999998961</v>
-      </c>
-      <c r="S13">
-        <v>2.289612151696796</v>
-      </c>
-      <c r="T13">
-        <v>1.655916423339106</v>
+      <c r="N20">
+        <v>0.0007199999999993878</v>
+      </c>
+      <c r="O20">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="P20">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="Q20">
+        <v>0.0009599999999991837</v>
+      </c>
+      <c r="R20">
+        <v>2.047466797835204</v>
+      </c>
+      <c r="S20">
+        <v>2.067989594059032</v>
+      </c>
+      <c r="T20">
+        <v>2.027347336699839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>222</v>
+      </c>
+      <c r="C21">
+        <v>1200</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1200</v>
+      </c>
+      <c r="F21">
+        <v>1200</v>
+      </c>
+      <c r="G21">
+        <v>1200</v>
+      </c>
+      <c r="H21">
+        <v>1200</v>
+      </c>
+      <c r="I21">
+        <v>1200</v>
+      </c>
+      <c r="J21">
+        <v>222</v>
+      </c>
+      <c r="K21">
+        <v>0.0005452252252252169</v>
+      </c>
+      <c r="L21">
+        <v>4.006435652756845E-05</v>
+      </c>
+      <c r="M21">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="N21">
+        <v>0.0005599999999992278</v>
+      </c>
+      <c r="O21">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P21">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="Q21">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="R21">
+        <v>2.200925313945836</v>
+      </c>
+      <c r="S21">
+        <v>2.222407851427539</v>
+      </c>
+      <c r="T21">
+        <v>2.17985411510967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>222</v>
+      </c>
+      <c r="C22">
+        <v>900</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>900</v>
+      </c>
+      <c r="F22">
+        <v>900</v>
+      </c>
+      <c r="G22">
+        <v>900</v>
+      </c>
+      <c r="H22">
+        <v>900</v>
+      </c>
+      <c r="I22">
+        <v>900</v>
+      </c>
+      <c r="J22">
+        <v>222</v>
+      </c>
+      <c r="K22">
+        <v>0.0003909909909910641</v>
+      </c>
+      <c r="L22">
+        <v>2.753705705451978E-05</v>
+      </c>
+      <c r="M22">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="N22">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O22">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="P22">
+        <v>0.0004000000000001329</v>
+      </c>
+      <c r="Q22">
+        <v>0.0004800000000031446</v>
+      </c>
+      <c r="R22">
+        <v>2.30184331797192</v>
+      </c>
+      <c r="S22">
+        <v>2.323368581143266</v>
+      </c>
+      <c r="T22">
+        <v>2.280713242800848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>222</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+      <c r="G23">
+        <v>600</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23">
+        <v>600</v>
+      </c>
+      <c r="J23">
+        <v>222</v>
+      </c>
+      <c r="K23">
+        <v>0.0002518918918920697</v>
+      </c>
+      <c r="L23">
+        <v>3.233068708871193E-05</v>
+      </c>
+      <c r="M23">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="N23">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="O23">
+        <v>0.00024000000000024</v>
+      </c>
+      <c r="P23">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q23">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="R23">
+        <v>2.381974248925357</v>
+      </c>
+      <c r="S23">
+        <v>2.42288266963549</v>
+      </c>
+      <c r="T23">
+        <v>2.342424302877751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>222</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>222</v>
+      </c>
+      <c r="K24">
+        <v>0.0001304504504505591</v>
+      </c>
+      <c r="L24">
+        <v>3.869798099167411E-05</v>
+      </c>
+      <c r="M24">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N24">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O24">
+        <v>0.0001599999999992718</v>
+      </c>
+      <c r="P24">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q24">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="R24">
+        <v>2.299723756904161</v>
+      </c>
+      <c r="S24">
+        <v>2.393110462148762</v>
+      </c>
+      <c r="T24">
+        <v>2.213351800625138</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2180,10 +2950,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -2207,13 +2977,13 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K4">
-        <v>0.0001652892561982868</v>
+        <v>0.0001290322580645558</v>
       </c>
       <c r="L4">
-        <v>0.0001272207686148053</v>
+        <v>5.423343236817221E-05</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2228,24 +2998,24 @@
         <v>0.0001600000000010482</v>
       </c>
       <c r="Q4">
-        <v>0.0007999999999999119</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="R4">
-        <v>1.815000000000662</v>
+        <v>2.324999999999285</v>
       </c>
       <c r="S4">
-        <v>2.103479579386573</v>
+        <v>2.489745667123109</v>
       </c>
       <c r="T4">
-        <v>1.596103939561939</v>
+        <v>2.180703550008636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -2269,45 +3039,45 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K5">
-        <v>0.0003239669421487232</v>
+        <v>0.0003050322580645331</v>
       </c>
       <c r="L5">
-        <v>0.000195100313252881</v>
+        <v>4.891516899538458E-05</v>
       </c>
       <c r="M5">
-        <v>0.0001599999999974955</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="N5">
-        <v>0.0002399999999980196</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="O5">
-        <v>0.00024000000000024</v>
+        <v>0.0003199999999994319</v>
       </c>
       <c r="P5">
-        <v>0.0003200000000020964</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="Q5">
-        <v>0.001040000000000152</v>
+        <v>0.0004000000000026205</v>
       </c>
       <c r="R5">
-        <v>1.852040816326743</v>
+        <v>1.967005076142023</v>
       </c>
       <c r="S5">
-        <v>2.074662873398569</v>
+        <v>2.017949698496628</v>
       </c>
       <c r="T5">
-        <v>1.672565849663718</v>
+        <v>1.918569382852277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B6">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>300</v>
@@ -2331,37 +3101,781 @@
         <v>300</v>
       </c>
       <c r="J6">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K6">
-        <v>0.0001586776859504363</v>
+        <v>0.0001759999999999773</v>
       </c>
       <c r="L6">
-        <v>0.0001135997516778658</v>
+        <v>4.684320350153887E-05</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.999999999697138E-05</v>
       </c>
       <c r="N6">
+        <v>0.0001599999999992718</v>
+      </c>
+      <c r="O6">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="P6">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="Q6">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="R6">
+        <v>1.704545454545675</v>
+      </c>
+      <c r="S6">
+        <v>1.779091108950599</v>
+      </c>
+      <c r="T6">
+        <v>1.635995639995156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>900</v>
+      </c>
+      <c r="I7">
+        <v>900</v>
+      </c>
+      <c r="J7">
+        <v>155</v>
+      </c>
+      <c r="K7">
+        <v>0.0004376774193547825</v>
+      </c>
+      <c r="L7">
+        <v>4.935715786253242E-05</v>
+      </c>
+      <c r="M7">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="N7">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O7">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="P7">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="R7">
+        <v>2.056308962264415</v>
+      </c>
+      <c r="S7">
+        <v>2.093475674384952</v>
+      </c>
+      <c r="T7">
+        <v>2.020438914941875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="I8">
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>155</v>
+      </c>
+      <c r="K8">
+        <v>0.0003086451612902266</v>
+      </c>
+      <c r="L8">
+        <v>4.506960589796471E-05</v>
+      </c>
+      <c r="M8">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N8">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="O8">
+        <v>0.0003199999999998759</v>
+      </c>
+      <c r="P8">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="Q8">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="R8">
+        <v>1.943979933110972</v>
+      </c>
+      <c r="S8">
+        <v>1.989721043493606</v>
+      </c>
+      <c r="T8">
+        <v>1.900294620400677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>155</v>
+      </c>
+      <c r="K9">
+        <v>0.0001326451612902494</v>
+      </c>
+      <c r="L9">
+        <v>4.019558383977856E-05</v>
+      </c>
+      <c r="M9">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N9">
         <v>8.00000000005241E-05</v>
       </c>
-      <c r="O6">
+      <c r="O9">
         <v>0.0001599999999992718</v>
       </c>
-      <c r="P6">
+      <c r="P9">
         <v>0.0001600000000010482</v>
       </c>
-      <c r="Q6">
+      <c r="Q9">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R9">
+        <v>2.261673151752221</v>
+      </c>
+      <c r="S9">
+        <v>2.374974780643365</v>
+      </c>
+      <c r="T9">
+        <v>2.158689716659962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10">
+        <v>1200</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
+      </c>
+      <c r="I10">
+        <v>1200</v>
+      </c>
+      <c r="J10">
+        <v>155</v>
+      </c>
+      <c r="K10">
+        <v>0.0005532903225806367</v>
+      </c>
+      <c r="L10">
+        <v>4.462120044446477E-05</v>
+      </c>
+      <c r="M10">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="N10">
         <v>0.000560000000000116</v>
       </c>
-      <c r="R6">
-        <v>1.890624999999725</v>
-      </c>
-      <c r="S6">
-        <v>2.167062055001275</v>
-      </c>
-      <c r="T6">
-        <v>1.67673549827135</v>
+      <c r="O10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="Q10">
+        <v>0.0007199999999976114</v>
+      </c>
+      <c r="R10">
+        <v>2.168843283582123</v>
+      </c>
+      <c r="S10">
+        <v>2.196733752820605</v>
+      </c>
+      <c r="T10">
+        <v>2.1416521488799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>900</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>900</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>900</v>
+      </c>
+      <c r="J11">
+        <v>155</v>
+      </c>
+      <c r="K11">
+        <v>0.0004242580645160808</v>
+      </c>
+      <c r="L11">
+        <v>4.115142116343623E-05</v>
+      </c>
+      <c r="M11">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="N11">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O11">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="P11">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="Q11">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="R11">
+        <v>2.121350364963745</v>
+      </c>
+      <c r="S11">
+        <v>2.154246151886055</v>
+      </c>
+      <c r="T11">
+        <v>2.089444118571965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>155</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>600</v>
+      </c>
+      <c r="J12">
+        <v>155</v>
+      </c>
+      <c r="K12">
+        <v>0.0002482580645161036</v>
+      </c>
+      <c r="L12">
+        <v>3.432367679067749E-05</v>
+      </c>
+      <c r="M12">
+        <v>0.0001599999999992718</v>
+      </c>
+      <c r="N12">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="O12">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="P12">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="R12">
+        <v>2.416839916840164</v>
+      </c>
+      <c r="S12">
+        <v>2.470615587830431</v>
+      </c>
+      <c r="T12">
+        <v>2.365355350907681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>155</v>
+      </c>
+      <c r="K13">
+        <v>0.0001156129032258542</v>
+      </c>
+      <c r="L13">
+        <v>3.988756716396654E-05</v>
+      </c>
+      <c r="M13">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N13">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O13">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="P13">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="R13">
+        <v>2.5948660714275</v>
+      </c>
+      <c r="S13">
+        <v>2.743901666889509</v>
+      </c>
+      <c r="T13">
+        <v>2.461186224604616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>155</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1500</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>155</v>
+      </c>
+      <c r="K14">
+        <v>0.0007127741935483221</v>
+      </c>
+      <c r="L14">
+        <v>4.681457598338899E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="N14">
+        <v>0.0007199999999976114</v>
+      </c>
+      <c r="O14">
+        <v>0.0007200000000000539</v>
+      </c>
+      <c r="P14">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="Q14">
+        <v>0.0008799999999986596</v>
+      </c>
+      <c r="R14">
+        <v>2.104453294714167</v>
+      </c>
+      <c r="S14">
+        <v>2.126440630602175</v>
+      </c>
+      <c r="T14">
+        <v>2.08291600225046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>155</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>1200</v>
+      </c>
+      <c r="H15">
+        <v>1200</v>
+      </c>
+      <c r="I15">
+        <v>1200</v>
+      </c>
+      <c r="J15">
+        <v>155</v>
+      </c>
+      <c r="K15">
+        <v>0.0005837419354837663</v>
+      </c>
+      <c r="L15">
+        <v>4.482503340326844E-05</v>
+      </c>
+      <c r="M15">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="N15">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="O15">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P15">
+        <v>0.0006399999999988637</v>
+      </c>
+      <c r="Q15">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="R15">
+        <v>2.055702917772252</v>
+      </c>
+      <c r="S15">
+        <v>2.080858390106262</v>
+      </c>
+      <c r="T15">
+        <v>2.031148389049899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>155</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>900</v>
+      </c>
+      <c r="F16">
+        <v>900</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="I16">
+        <v>900</v>
+      </c>
+      <c r="J16">
+        <v>155</v>
+      </c>
+      <c r="K16">
+        <v>0.0004077419354837891</v>
+      </c>
+      <c r="L16">
+        <v>3.620913974982894E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="N16">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O16">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="P16">
+        <v>0.0004000000000008441</v>
+      </c>
+      <c r="Q16">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="R16">
+        <v>2.207278481013101</v>
+      </c>
+      <c r="S16">
+        <v>2.23857490232336</v>
+      </c>
+      <c r="T16">
+        <v>2.176845074250523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>155</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17">
+        <v>600</v>
+      </c>
+      <c r="J17">
+        <v>155</v>
+      </c>
+      <c r="K17">
+        <v>0.0002750967741935397</v>
+      </c>
+      <c r="L17">
+        <v>3.982702440125224E-05</v>
+      </c>
+      <c r="M17">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N17">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="O17">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="P17">
+        <v>0.00032000000000032</v>
+      </c>
+      <c r="Q17">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="R17">
+        <v>2.181050656660482</v>
+      </c>
+      <c r="S17">
+        <v>2.231920608546435</v>
+      </c>
+      <c r="T17">
+        <v>2.132447887800192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>155</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>155</v>
+      </c>
+      <c r="K18">
+        <v>0.0001594838709676855</v>
+      </c>
+      <c r="L18">
+        <v>2.496214142250382E-05</v>
+      </c>
+      <c r="M18">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N18">
+        <v>0.0001599999999992718</v>
+      </c>
+      <c r="O18">
+        <v>0.00016000000000016</v>
+      </c>
+      <c r="P18">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R18">
+        <v>1.881067961165714</v>
+      </c>
+      <c r="S18">
+        <v>1.928590015600068</v>
+      </c>
+      <c r="T18">
+        <v>1.835831552056752</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +3890,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2479,10 +3993,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -2506,45 +4020,45 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="K4">
-        <v>0.0003736170212764646</v>
+        <v>0.0001239378238341299</v>
       </c>
       <c r="L4">
-        <v>0.0002233318138151805</v>
+        <v>7.297999347312079E-05</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
+        <v>7.999999999996898E-05</v>
+      </c>
+      <c r="O4">
+        <v>8.000000000407681E-05</v>
+      </c>
+      <c r="P4">
         <v>0.0001600000000010482</v>
       </c>
-      <c r="O4">
-        <v>0.000320000000000098</v>
-      </c>
-      <c r="P4">
-        <v>0.0006399999999984196</v>
-      </c>
       <c r="Q4">
-        <v>0.0007999999999999119</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="R4">
-        <v>0.8029612756267055</v>
+        <v>2.420568561874218</v>
       </c>
       <c r="S4">
-        <v>0.9133293594505008</v>
+        <v>2.639880150748471</v>
       </c>
       <c r="T4">
-        <v>0.716391461510364</v>
+        <v>2.234901147574208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -2568,45 +4082,45 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="K5">
-        <v>0.000708085106382818</v>
+        <v>0.0002752331606216735</v>
       </c>
       <c r="L5">
-        <v>0.000212457593976059</v>
+        <v>7.736596298113602E-05</v>
       </c>
       <c r="M5">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N5">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="O5">
         <v>0.0002400000000015723</v>
       </c>
-      <c r="N5">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="O5">
-        <v>0.0006400000000006401</v>
-      </c>
       <c r="P5">
-        <v>0.0008799999999998809</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="Q5">
-        <v>0.001199999999997203</v>
+        <v>0.00048000000000048</v>
       </c>
       <c r="R5">
-        <v>0.8473557692309616</v>
+        <v>2.179969879518771</v>
       </c>
       <c r="S5">
-        <v>0.9020725330006101</v>
+        <v>2.269992363301614</v>
       </c>
       <c r="T5">
-        <v>0.7988972783068179</v>
+        <v>2.096815189467347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>300</v>
@@ -2630,37 +4144,1153 @@
         <v>300</v>
       </c>
       <c r="J6">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="K6">
-        <v>0.0003344680851063534</v>
+        <v>0.0001512953367875435</v>
       </c>
       <c r="L6">
-        <v>0.0001638095998164495</v>
+        <v>5.498940076865195E-05</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="O6">
+        <v>0.00016000000000016</v>
+      </c>
+      <c r="P6">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q6">
+        <v>0.000240000000005125</v>
+      </c>
+      <c r="R6">
+        <v>1.982876712329045</v>
+      </c>
+      <c r="S6">
+        <v>2.090050255925584</v>
+      </c>
+      <c r="T6">
+        <v>1.886158333517757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>193</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>900</v>
+      </c>
+      <c r="I7">
+        <v>900</v>
+      </c>
+      <c r="J7">
+        <v>193</v>
+      </c>
+      <c r="K7">
+        <v>0.000404974093264049</v>
+      </c>
+      <c r="L7">
+        <v>7.147351164614547E-05</v>
+      </c>
+      <c r="M7">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N7">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="O7">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="P7">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="R7">
+        <v>2.222364380758516</v>
+      </c>
+      <c r="S7">
+        <v>2.279113784580488</v>
+      </c>
+      <c r="T7">
+        <v>2.168372411404573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>193</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="I8">
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>193</v>
+      </c>
+      <c r="K8">
+        <v>0.0002810362694299192</v>
+      </c>
+      <c r="L8">
+        <v>5.170996569971516E-05</v>
+      </c>
+      <c r="M8">
         <v>8.00000000005241E-05</v>
       </c>
-      <c r="N6">
+      <c r="N8">
         <v>0.0002399999999997959</v>
       </c>
-      <c r="O6">
+      <c r="O8">
         <v>0.0003199999999985437</v>
       </c>
-      <c r="P6">
+      <c r="P8">
+        <v>0.000319999999999987</v>
+      </c>
+      <c r="Q8">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="R8">
+        <v>2.134955752213397</v>
+      </c>
+      <c r="S8">
+        <v>2.191854272337416</v>
+      </c>
+      <c r="T8">
+        <v>2.080936553998978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>193</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>193</v>
+      </c>
+      <c r="K9">
+        <v>0.0001297409326423756</v>
+      </c>
+      <c r="L9">
+        <v>4.449292117337626E-05</v>
+      </c>
+      <c r="M9">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N9">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O9">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P9">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R9">
+        <v>2.312300319490804</v>
+      </c>
+      <c r="S9">
+        <v>2.429864032538019</v>
+      </c>
+      <c r="T9">
+        <v>2.205587730012766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>193</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10">
+        <v>1200</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
+      </c>
+      <c r="I10">
+        <v>1200</v>
+      </c>
+      <c r="J10">
+        <v>193</v>
+      </c>
+      <c r="K10">
+        <v>0.0005268393782383257</v>
+      </c>
+      <c r="L10">
+        <v>7.891754731761381E-05</v>
+      </c>
+      <c r="M10">
+        <v>0.00032000000000032</v>
+      </c>
+      <c r="N10">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="O10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="Q10">
+        <v>0.0008800000000022123</v>
+      </c>
+      <c r="R10">
+        <v>2.277734067663328</v>
+      </c>
+      <c r="S10">
+        <v>2.32690997120904</v>
+      </c>
+      <c r="T10">
+        <v>2.23059367092756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11">
+        <v>193</v>
+      </c>
+      <c r="C11">
+        <v>900</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>900</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>900</v>
+      </c>
+      <c r="J11">
+        <v>193</v>
+      </c>
+      <c r="K11">
+        <v>0.0004029015544041957</v>
+      </c>
+      <c r="L11">
+        <v>5.188002633946162E-05</v>
+      </c>
+      <c r="M11">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N11">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O11">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="P11">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="R11">
+        <v>2.233796296296015</v>
+      </c>
+      <c r="S11">
+        <v>2.27512811532778</v>
+      </c>
+      <c r="T11">
+        <v>2.193939416881497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>193</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>600</v>
+      </c>
+      <c r="J12">
+        <v>193</v>
+      </c>
+      <c r="K12">
+        <v>0.0002516062176166522</v>
+      </c>
+      <c r="L12">
+        <v>4.394611239331337E-05</v>
+      </c>
+      <c r="M12">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="N12">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="O12">
+        <v>0.0002399999999999972</v>
+      </c>
+      <c r="P12">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q12">
+        <v>0.0004000000000026205</v>
+      </c>
+      <c r="R12">
+        <v>2.38467874794001</v>
+      </c>
+      <c r="S12">
+        <v>2.444926709128834</v>
+      </c>
+      <c r="T12">
+        <v>2.327328642034827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>193</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>193</v>
+      </c>
+      <c r="K13">
+        <v>0.0001218652849742766</v>
+      </c>
+      <c r="L13">
+        <v>4.088401387666865E-05</v>
+      </c>
+      <c r="M13">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N13">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O13">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P13">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R13">
+        <v>2.461734693873848</v>
+      </c>
+      <c r="S13">
+        <v>2.584041439209348</v>
+      </c>
+      <c r="T13">
+        <v>2.350482653206423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14">
+        <v>193</v>
+      </c>
+      <c r="C14">
+        <v>1500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1500</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>193</v>
+      </c>
+      <c r="K14">
+        <v>0.0006511917098444742</v>
+      </c>
+      <c r="L14">
+        <v>8.149085795921211E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.0004799999999960392</v>
+      </c>
+      <c r="N14">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="O14">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="P14">
+        <v>0.0007199999999999429</v>
+      </c>
+      <c r="Q14">
+        <v>0.001200000000000756</v>
+      </c>
+      <c r="R14">
+        <v>2.303469127944287</v>
+      </c>
+      <c r="S14">
+        <v>2.34486871181384</v>
+      </c>
+      <c r="T14">
+        <v>2.263506034303157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>1200</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+      <c r="G15">
+        <v>1200</v>
+      </c>
+      <c r="H15">
+        <v>1200</v>
+      </c>
+      <c r="I15">
+        <v>1200</v>
+      </c>
+      <c r="J15">
+        <v>193</v>
+      </c>
+      <c r="K15">
+        <v>0.0005272538860103444</v>
+      </c>
+      <c r="L15">
+        <v>6.018394371555028E-05</v>
+      </c>
+      <c r="M15">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="N15">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="O15">
+        <v>0.0005599999999996719</v>
+      </c>
+      <c r="P15">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="Q15">
+        <v>0.0009599999999991837</v>
+      </c>
+      <c r="R15">
+        <v>2.275943396226494</v>
+      </c>
+      <c r="S15">
+        <v>2.313195482989644</v>
+      </c>
+      <c r="T15">
+        <v>2.239872121140293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>193</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>900</v>
+      </c>
+      <c r="F16">
+        <v>900</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
+        <v>900</v>
+      </c>
+      <c r="I16">
+        <v>900</v>
+      </c>
+      <c r="J16">
+        <v>193</v>
+      </c>
+      <c r="K16">
+        <v>0.0003759585492228008</v>
+      </c>
+      <c r="L16">
+        <v>5.182340146637095E-05</v>
+      </c>
+      <c r="M16">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="N16">
         <v>0.0003200000000020964</v>
       </c>
-      <c r="Q6">
-        <v>0.0008799999999999919</v>
-      </c>
-      <c r="R6">
-        <v>0.8969465648855754</v>
-      </c>
-      <c r="S6">
-        <v>0.9955116640047321</v>
-      </c>
-      <c r="T6">
-        <v>0.8161408755113619</v>
+      <c r="O16">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="P16">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="Q16">
+        <v>0.0007200000000011642</v>
+      </c>
+      <c r="R16">
+        <v>2.393880926130081</v>
+      </c>
+      <c r="S16">
+        <v>2.441359214240133</v>
+      </c>
+      <c r="T16">
+        <v>2.348214076364021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>193</v>
+      </c>
+      <c r="C17">
+        <v>600</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17">
+        <v>600</v>
+      </c>
+      <c r="J17">
+        <v>193</v>
+      </c>
+      <c r="K17">
+        <v>0.0002462176165804252</v>
+      </c>
+      <c r="L17">
+        <v>3.734264625995359E-05</v>
+      </c>
+      <c r="M17">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="N17">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="O17">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="P17">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q17">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="R17">
+        <v>2.436868686867556</v>
+      </c>
+      <c r="S17">
+        <v>2.490151751858906</v>
+      </c>
+      <c r="T17">
+        <v>2.385818102925897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <v>193</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>300</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18">
+        <v>193</v>
+      </c>
+      <c r="K18">
+        <v>0.0001243523316061486</v>
+      </c>
+      <c r="L18">
+        <v>4.230002225229897E-05</v>
+      </c>
+      <c r="M18">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N18">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O18">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P18">
+        <v>0.00016000000000016</v>
+      </c>
+      <c r="Q18">
+        <v>0.0003199999999985437</v>
+      </c>
+      <c r="R18">
+        <v>2.412500000001339</v>
+      </c>
+      <c r="S18">
+        <v>2.534115957578396</v>
+      </c>
+      <c r="T18">
+        <v>2.302022547070011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>193</v>
+      </c>
+      <c r="C19">
+        <v>1800</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1800</v>
+      </c>
+      <c r="F19">
+        <v>1800</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+      <c r="H19">
+        <v>1800</v>
+      </c>
+      <c r="I19">
+        <v>1800</v>
+      </c>
+      <c r="J19">
+        <v>193</v>
+      </c>
+      <c r="K19">
+        <v>0.0007747150259066098</v>
+      </c>
+      <c r="L19">
+        <v>8.901689114146307E-05</v>
+      </c>
+      <c r="M19">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="N19">
+        <v>0.0007199999999998319</v>
+      </c>
+      <c r="O19">
+        <v>0.0007999999999981355</v>
+      </c>
+      <c r="P19">
+        <v>0.0008000000000016882</v>
+      </c>
+      <c r="Q19">
+        <v>0.001440000000002328</v>
+      </c>
+      <c r="R19">
+        <v>2.323434991974695</v>
+      </c>
+      <c r="S19">
+        <v>2.361720674314156</v>
+      </c>
+      <c r="T19">
+        <v>2.286370800960151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <v>193</v>
+      </c>
+      <c r="C20">
+        <v>1500</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1500</v>
+      </c>
+      <c r="F20">
+        <v>1500</v>
+      </c>
+      <c r="G20">
+        <v>1500</v>
+      </c>
+      <c r="H20">
+        <v>1500</v>
+      </c>
+      <c r="I20">
+        <v>1500</v>
+      </c>
+      <c r="J20">
+        <v>193</v>
+      </c>
+      <c r="K20">
+        <v>0.00065077720207248</v>
+      </c>
+      <c r="L20">
+        <v>6.64573570861405E-05</v>
+      </c>
+      <c r="M20">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="N20">
+        <v>0.0006399999999988637</v>
+      </c>
+      <c r="O20">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="P20">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="Q20">
+        <v>0.001200000000000756</v>
+      </c>
+      <c r="R20">
+        <v>2.304936305732693</v>
+      </c>
+      <c r="S20">
+        <v>2.338630081722969</v>
+      </c>
+      <c r="T20">
+        <v>2.272199625492047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <v>193</v>
+      </c>
+      <c r="C21">
+        <v>1200</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1200</v>
+      </c>
+      <c r="F21">
+        <v>1200</v>
+      </c>
+      <c r="G21">
+        <v>1200</v>
+      </c>
+      <c r="H21">
+        <v>1200</v>
+      </c>
+      <c r="I21">
+        <v>1200</v>
+      </c>
+      <c r="J21">
+        <v>193</v>
+      </c>
+      <c r="K21">
+        <v>0.0004994818652849364</v>
+      </c>
+      <c r="L21">
+        <v>5.931677788097601E-05</v>
+      </c>
+      <c r="M21">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="N21">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="O21">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="P21">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="Q21">
+        <v>0.0009600000000027364</v>
+      </c>
+      <c r="R21">
+        <v>2.402489626556198</v>
+      </c>
+      <c r="S21">
+        <v>2.443428403306863</v>
+      </c>
+      <c r="T21">
+        <v>2.36290007342698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>193</v>
+      </c>
+      <c r="C22">
+        <v>900</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>900</v>
+      </c>
+      <c r="F22">
+        <v>900</v>
+      </c>
+      <c r="G22">
+        <v>900</v>
+      </c>
+      <c r="H22">
+        <v>900</v>
+      </c>
+      <c r="I22">
+        <v>900</v>
+      </c>
+      <c r="J22">
+        <v>193</v>
+      </c>
+      <c r="K22">
+        <v>0.0003697409326425609</v>
+      </c>
+      <c r="L22">
+        <v>5.272210195471613E-05</v>
+      </c>
+      <c r="M22">
+        <v>0.000240000000005125</v>
+      </c>
+      <c r="N22">
+        <v>0.00032000000000032</v>
+      </c>
+      <c r="O22">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="P22">
+        <v>0.0003999999999999559</v>
+      </c>
+      <c r="Q22">
+        <v>0.0008000000000016882</v>
+      </c>
+      <c r="R22">
+        <v>2.434136771299962</v>
+      </c>
+      <c r="S22">
+        <v>2.48411070631566</v>
+      </c>
+      <c r="T22">
+        <v>2.38613387871925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>600</v>
+      </c>
+      <c r="G23">
+        <v>600</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23">
+        <v>600</v>
+      </c>
+      <c r="J23">
+        <v>193</v>
+      </c>
+      <c r="K23">
+        <v>0.0002478756476682842</v>
+      </c>
+      <c r="L23">
+        <v>3.791637011406444E-05</v>
+      </c>
+      <c r="M23">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="N23">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="O23">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="P23">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q23">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="R23">
+        <v>2.42056856187398</v>
+      </c>
+      <c r="S23">
+        <v>2.473958914812545</v>
+      </c>
+      <c r="T23">
+        <v>2.369433955557598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>193</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24">
+        <v>300</v>
+      </c>
+      <c r="I24">
+        <v>300</v>
+      </c>
+      <c r="J24">
+        <v>193</v>
+      </c>
+      <c r="K24">
+        <v>0.0001235233160621356</v>
+      </c>
+      <c r="L24">
+        <v>4.077403081545501E-05</v>
+      </c>
+      <c r="M24">
+        <v>7.999999999697138E-05</v>
+      </c>
+      <c r="N24">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O24">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P24">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q24">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R24">
+        <v>2.428691275168582</v>
+      </c>
+      <c r="S24">
+        <v>2.547321651636117</v>
+      </c>
+      <c r="T24">
+        <v>2.32061860272008</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +5305,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2778,10 +5408,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -2805,45 +5435,45 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.0001118796992480243</v>
+        <v>0.0001399999999999129</v>
       </c>
       <c r="L4">
-        <v>5.38818906995396E-05</v>
+        <v>9.92998747038165E-05</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8.00000000005241E-05</v>
+        <v>8.000000000041307E-05</v>
       </c>
       <c r="O4">
-        <v>8.00000000005241E-05</v>
+        <v>0.000160000000000049</v>
       </c>
       <c r="P4">
-        <v>0.00016000000000016</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="Q4">
-        <v>0.00032000000000032</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="R4">
-        <v>2.681451612905525</v>
+        <v>2.142857142858476</v>
       </c>
       <c r="S4">
-        <v>2.920495911461385</v>
+        <v>2.711037015772066</v>
       </c>
       <c r="T4">
-        <v>2.47857851197576</v>
+        <v>1.771570844809033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -2867,169 +5497,169 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.0002165413533832194</v>
+        <v>0.0003254545454543032</v>
       </c>
       <c r="L5">
-        <v>5.972214848248082E-05</v>
+        <v>8.165311043635202E-05</v>
       </c>
       <c r="M5">
-        <v>7.999999999963592E-05</v>
+        <v>0.0001599999999992718</v>
       </c>
       <c r="N5">
-        <v>0.00016000000000016</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="O5">
-        <v>0.0002399999999980196</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="P5">
-        <v>0.00024000000000024</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="Q5">
-        <v>0.0004000000000008441</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="R5">
-        <v>2.770833333336394</v>
+        <v>1.843575418995786</v>
       </c>
       <c r="S5">
-        <v>2.907098408585338</v>
+        <v>1.991188373382814</v>
       </c>
       <c r="T5">
-        <v>2.646770659037078</v>
+        <v>1.716337974965848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J6">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.0003512781954885731</v>
+        <v>0.0001854545454543903</v>
       </c>
       <c r="L6">
-        <v>8.28782745031131E-05</v>
+        <v>7.863529432567173E-05</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0.0001599999999992718</v>
       </c>
-      <c r="N6">
-        <v>0.0003199999999985437</v>
-      </c>
       <c r="O6">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="P6">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="Q6">
         <v>0.00032000000000032</v>
       </c>
-      <c r="P6">
-        <v>0.0003999999999999559</v>
-      </c>
-      <c r="Q6">
-        <v>0.000560000000000116</v>
-      </c>
       <c r="R6">
-        <v>2.562071917809304</v>
+        <v>1.617647058824883</v>
       </c>
       <c r="S6">
-        <v>2.669096626588006</v>
+        <v>1.849348373006322</v>
       </c>
       <c r="T6">
-        <v>2.46329921743041</v>
+        <v>1.437540379143453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
         <v>44</v>
       </c>
-      <c r="B7">
-        <v>133</v>
-      </c>
       <c r="C7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I7">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J7">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.0001046616541351951</v>
+        <v>0.0004545454545455155</v>
       </c>
       <c r="L7">
-        <v>6.163859564424525E-05</v>
+        <v>7.47540010737553E-05</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0003199999999998759</v>
       </c>
       <c r="N7">
-        <v>7.999999999963592E-05</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="O7">
-        <v>8.00000000005241E-05</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="P7">
-        <v>0.00016000000000016</v>
+        <v>0.0004800000000031446</v>
       </c>
       <c r="Q7">
-        <v>0.0002400000000015723</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="R7">
-        <v>2.86637931034875</v>
+        <v>1.979999999999734</v>
       </c>
       <c r="S7">
-        <v>3.185188254896376</v>
+        <v>2.081131482944031</v>
       </c>
       <c r="T7">
-        <v>2.605583621713372</v>
+        <v>1.888241884978903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>600</v>
@@ -3053,45 +5683,45 @@
         <v>600</v>
       </c>
       <c r="J8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.0002393984962405487</v>
+        <v>0.0003145454545456026</v>
       </c>
       <c r="L8">
-        <v>8.149883247433333E-05</v>
+        <v>7.598820426971867E-05</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="N8">
-        <v>0.0001600000000010482</v>
+        <v>0.0002400000000012392</v>
       </c>
       <c r="O8">
-        <v>0.0002399999999997959</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="P8">
-        <v>0.0003199999999985437</v>
+        <v>0.0003200000000020964</v>
       </c>
       <c r="Q8">
-        <v>0.0003999999999999559</v>
+        <v>0.0004800000000013682</v>
       </c>
       <c r="R8">
-        <v>2.506281407035728</v>
+        <v>1.907514450866154</v>
       </c>
       <c r="S8">
-        <v>2.660193764819404</v>
+        <v>2.054144686128976</v>
       </c>
       <c r="T8">
-        <v>2.369204955821644</v>
+        <v>1.78042317498009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B9">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>300</v>
@@ -3115,13 +5745,13 @@
         <v>300</v>
       </c>
       <c r="J9">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.0001347368421053537</v>
+        <v>0.0001290909090912123</v>
       </c>
       <c r="L9">
-        <v>7.776790398322755E-05</v>
+        <v>5.778139162170052E-05</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3130,22 +5760,270 @@
         <v>8.00000000005241E-05</v>
       </c>
       <c r="O9">
-        <v>0.0001599999999997159</v>
+        <v>0.0001599999999992718</v>
       </c>
       <c r="P9">
         <v>0.0001600000000010482</v>
       </c>
       <c r="Q9">
-        <v>0.00032000000000032</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="R9">
-        <v>2.226562499998504</v>
+        <v>2.323943661966372</v>
       </c>
       <c r="S9">
-        <v>2.46873124682276</v>
+        <v>2.678150602317537</v>
       </c>
       <c r="T9">
-        <v>2.027660345136967</v>
+        <v>2.052485905923149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1200</v>
+      </c>
+      <c r="F10">
+        <v>1200</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
+      <c r="H10">
+        <v>1200</v>
+      </c>
+      <c r="I10">
+        <v>1200</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>0.0005818181818181379</v>
+      </c>
+      <c r="L10">
+        <v>7.785713593001529E-05</v>
+      </c>
+      <c r="M10">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="N10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="O10">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P10">
+        <v>0.0006399999999997519</v>
+      </c>
+      <c r="Q10">
+        <v>0.0008000000000016882</v>
+      </c>
+      <c r="R10">
+        <v>2.062500000000155</v>
+      </c>
+      <c r="S10">
+        <v>2.147409388955366</v>
+      </c>
+      <c r="T10">
+        <v>1.984049907453763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>900</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11">
+        <v>900</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
+        <v>900</v>
+      </c>
+      <c r="I11">
+        <v>900</v>
+      </c>
+      <c r="J11">
+        <v>44</v>
+      </c>
+      <c r="K11">
+        <v>0.000441818181818225</v>
+      </c>
+      <c r="L11">
+        <v>6.567264579594232E-05</v>
+      </c>
+      <c r="M11">
+        <v>0.000240000000005125</v>
+      </c>
+      <c r="N11">
+        <v>0.0003999999999997339</v>
+      </c>
+      <c r="O11">
+        <v>0.0004399999999993298</v>
+      </c>
+      <c r="P11">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006399999999970873</v>
+      </c>
+      <c r="R11">
+        <v>2.037037037036838</v>
+      </c>
+      <c r="S11">
+        <v>2.130615463244994</v>
+      </c>
+      <c r="T11">
+        <v>1.951332854070802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>600</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>0.0002563636363638347</v>
+      </c>
+      <c r="L12">
+        <v>6.810016252023069E-05</v>
+      </c>
+      <c r="M12">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="N12">
+        <v>0.0002399999999993518</v>
+      </c>
+      <c r="O12">
+        <v>0.0002400000000004621</v>
+      </c>
+      <c r="P12">
+        <v>0.0003199999999987657</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="R12">
+        <v>2.340425531913083</v>
+      </c>
+      <c r="S12">
+        <v>2.539775807477188</v>
+      </c>
+      <c r="T12">
+        <v>2.170092199098367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>300</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>0.0001272727272726224</v>
+      </c>
+      <c r="L13">
+        <v>4.97605258872867E-05</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O13">
+        <v>0.0001599999999974955</v>
+      </c>
+      <c r="P13">
+        <v>0.00016000000000016</v>
+      </c>
+      <c r="Q13">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="R13">
+        <v>2.357142857144799</v>
+      </c>
+      <c r="S13">
+        <v>2.665021898849123</v>
+      </c>
+      <c r="T13">
+        <v>2.113032845230702</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +6038,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3263,10 +6141,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -3290,13 +6168,13 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K4">
-        <v>0.0001114754098359846</v>
+        <v>0.0002024999999999741</v>
       </c>
       <c r="L4">
-        <v>4.202523311732816E-05</v>
+        <v>0.0001665817327446649</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3305,30 +6183,30 @@
         <v>8.00000000005241E-05</v>
       </c>
       <c r="O4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="P4">
-        <v>0.0001599999999992718</v>
+        <v>0.0002400000000024605</v>
       </c>
       <c r="Q4">
-        <v>0.0001600000000010482</v>
+        <v>0.000880000000000436</v>
       </c>
       <c r="R4">
-        <v>2.69117647059019</v>
+        <v>1.481481481481671</v>
       </c>
       <c r="S4">
-        <v>2.972384126844315</v>
+        <v>1.77329370103142</v>
       </c>
       <c r="T4">
-        <v>2.458578321125901</v>
+        <v>1.272138999323975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -3352,533 +6230,99 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K5">
-        <v>0.0002399999999998319</v>
+        <v>0.0006866666666666819</v>
       </c>
       <c r="L5">
-        <v>7.302967433382814E-05</v>
+        <v>0.0003063766744819604</v>
       </c>
       <c r="M5">
-        <v>8.00000000005241E-05</v>
+        <v>0.00016000000000016</v>
       </c>
       <c r="N5">
-        <v>0.0001600000000010482</v>
+        <v>0.0004799999999995919</v>
       </c>
       <c r="O5">
-        <v>0.0002399999999997959</v>
+        <v>0.0006399999999970873</v>
       </c>
       <c r="P5">
-        <v>0.0003199999999985437</v>
+        <v>0.0009000000000014552</v>
       </c>
       <c r="Q5">
-        <v>0.0003999999999999559</v>
+        <v>0.0015199999999993</v>
       </c>
       <c r="R5">
-        <v>2.500000000001751</v>
+        <v>0.8737864077669709</v>
       </c>
       <c r="S5">
-        <v>2.706689139129836</v>
+        <v>0.9594188724594279</v>
       </c>
       <c r="T5">
-        <v>2.322637914316966</v>
+        <v>0.8021875484077975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J6">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K6">
-        <v>0.000360655737704705</v>
+        <v>0.0004841666666667078</v>
       </c>
       <c r="L6">
-        <v>9.646880069834682E-05</v>
+        <v>0.0002377068812710466</v>
       </c>
       <c r="M6">
-        <v>0.0001600000000000212</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="N6">
         <v>0.0003199999999985437</v>
       </c>
       <c r="O6">
-        <v>0.0003200000000020964</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="P6">
-        <v>0.000400000000000067</v>
+        <v>0.0006400000000006401</v>
       </c>
       <c r="Q6">
-        <v>0.000560000000000116</v>
+        <v>0.001039999999999708</v>
       </c>
       <c r="R6">
-        <v>2.49545454545602</v>
+        <v>0.6196213425128562</v>
       </c>
       <c r="S6">
-        <v>2.675015315992325</v>
+        <v>0.6871035903424335</v>
       </c>
       <c r="T6">
-        <v>2.338483518081754</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>1200</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1200</v>
-      </c>
-      <c r="F7">
-        <v>1200</v>
-      </c>
-      <c r="G7">
-        <v>1200</v>
-      </c>
-      <c r="H7">
-        <v>1200</v>
-      </c>
-      <c r="I7">
-        <v>1200</v>
-      </c>
-      <c r="J7">
-        <v>61</v>
-      </c>
-      <c r="K7">
-        <v>0.0005337704918030945</v>
-      </c>
-      <c r="L7">
-        <v>0.0001109679223082151</v>
-      </c>
-      <c r="M7">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="N7">
-        <v>0.0004799999999995919</v>
-      </c>
-      <c r="O7">
-        <v>0.0005599999999998939</v>
-      </c>
-      <c r="P7">
-        <v>0.0006399999999997519</v>
-      </c>
-      <c r="Q7">
-        <v>0.0007200000000011642</v>
-      </c>
-      <c r="R7">
-        <v>2.248157248158024</v>
-      </c>
-      <c r="S7">
-        <v>2.37190320233196</v>
-      </c>
-      <c r="T7">
-        <v>2.13668310000658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8">
-        <v>61</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>300</v>
-      </c>
-      <c r="G8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>300</v>
-      </c>
-      <c r="I8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>61</v>
-      </c>
-      <c r="K8">
-        <v>0.0001285245901638473</v>
-      </c>
-      <c r="L8">
-        <v>6.244560474453635E-05</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O8">
-        <v>0.0001599999999974955</v>
-      </c>
-      <c r="P8">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="Q8">
-        <v>0.0003199999999994319</v>
-      </c>
-      <c r="R8">
-        <v>2.33418367347097</v>
-      </c>
-      <c r="S8">
-        <v>2.65830840191254</v>
-      </c>
-      <c r="T8">
-        <v>2.080509369227074</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>61</v>
-      </c>
-      <c r="C9">
-        <v>600</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>600</v>
-      </c>
-      <c r="F9">
-        <v>600</v>
-      </c>
-      <c r="G9">
-        <v>600</v>
-      </c>
-      <c r="H9">
-        <v>600</v>
-      </c>
-      <c r="I9">
-        <v>600</v>
-      </c>
-      <c r="J9">
-        <v>61</v>
-      </c>
-      <c r="K9">
-        <v>0.0002491803278687203</v>
-      </c>
-      <c r="L9">
-        <v>8.145131637910758E-05</v>
-      </c>
-      <c r="M9">
-        <v>8.00000000000245E-05</v>
-      </c>
-      <c r="N9">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="O9">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="P9">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="Q9">
-        <v>0.0004000000000026205</v>
-      </c>
-      <c r="R9">
-        <v>2.407894736843382</v>
-      </c>
-      <c r="S9">
-        <v>2.623066246809294</v>
-      </c>
-      <c r="T9">
-        <v>2.225348244700935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>900</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>900</v>
-      </c>
-      <c r="F10">
-        <v>900</v>
-      </c>
-      <c r="G10">
-        <v>900</v>
-      </c>
-      <c r="H10">
-        <v>900</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>0.0004222950819671099</v>
-      </c>
-      <c r="L10">
-        <v>0.0001054576288155742</v>
-      </c>
-      <c r="M10">
-        <v>0.0001599999999992718</v>
-      </c>
-      <c r="N10">
-        <v>0.0003200000000020964</v>
-      </c>
-      <c r="O10">
-        <v>0.000400000000000178</v>
-      </c>
-      <c r="P10">
-        <v>0.000480000000000036</v>
-      </c>
-      <c r="Q10">
-        <v>0.0006400000000006401</v>
-      </c>
-      <c r="R10">
-        <v>2.131211180124744</v>
-      </c>
-      <c r="S10">
-        <v>2.273701926751504</v>
-      </c>
-      <c r="T10">
-        <v>2.005526719766425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-      <c r="G11">
-        <v>300</v>
-      </c>
-      <c r="H11">
-        <v>300</v>
-      </c>
-      <c r="I11">
-        <v>300</v>
-      </c>
-      <c r="J11">
-        <v>61</v>
-      </c>
-      <c r="K11">
-        <v>0.0001206557377048731</v>
-      </c>
-      <c r="L11">
-        <v>7.247686648083905E-05</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>7.999999999963592E-05</v>
-      </c>
-      <c r="O11">
-        <v>0.0001599999999974955</v>
-      </c>
-      <c r="P11">
-        <v>0.00016000000000016</v>
-      </c>
-      <c r="Q11">
-        <v>0.0003200000000020964</v>
-      </c>
-      <c r="R11">
-        <v>2.486413043479188</v>
-      </c>
-      <c r="S11">
-        <v>2.927757510929627</v>
-      </c>
-      <c r="T11">
-        <v>2.160698758907789</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>600</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
-      <c r="I12">
-        <v>600</v>
-      </c>
-      <c r="J12">
-        <v>61</v>
-      </c>
-      <c r="K12">
-        <v>0.0002937704918032626</v>
-      </c>
-      <c r="L12">
-        <v>9.876173237344654E-05</v>
-      </c>
-      <c r="M12">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="N12">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="O12">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="P12">
-        <v>0.0003200000000020964</v>
-      </c>
-      <c r="Q12">
-        <v>0.0005599999999983396</v>
-      </c>
-      <c r="R12">
-        <v>2.042410714285826</v>
-      </c>
-      <c r="S12">
-        <v>2.230599283879592</v>
-      </c>
-      <c r="T12">
-        <v>1.883505355846682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>61</v>
-      </c>
-      <c r="C13">
-        <v>300</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
-      <c r="G13">
-        <v>300</v>
-      </c>
-      <c r="H13">
-        <v>300</v>
-      </c>
-      <c r="I13">
-        <v>300</v>
-      </c>
-      <c r="J13">
-        <v>61</v>
-      </c>
-      <c r="K13">
-        <v>0.0001731147540983895</v>
-      </c>
-      <c r="L13">
-        <v>9.925625057724172E-05</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O13">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="P13">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="Q13">
-        <v>0.0004800000000013682</v>
-      </c>
-      <c r="R13">
-        <v>1.732954545454256</v>
-      </c>
-      <c r="S13">
-        <v>2.024207207250357</v>
-      </c>
-      <c r="T13">
-        <v>1.51497295532501</v>
+        <v>0.5642089044829545</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +6337,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3996,10 +6440,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="C4">
         <v>300</v>
@@ -4023,45 +6467,45 @@
         <v>300</v>
       </c>
       <c r="J4">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="K4">
-        <v>9.714285714285913E-05</v>
+        <v>0.0001324024640657998</v>
       </c>
       <c r="L4">
-        <v>3.322397857901415E-05</v>
+        <v>4.415389093227934E-05</v>
       </c>
       <c r="M4">
-        <v>7.999999999697138E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>8.00000000005241E-05</v>
       </c>
       <c r="O4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001599999999992718</v>
       </c>
       <c r="P4">
-        <v>8.00000000005241E-05</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="Q4">
-        <v>0.0001600000000010482</v>
+        <v>0.0002400000000015723</v>
       </c>
       <c r="R4">
-        <v>3.088235294117584</v>
+        <v>2.26581885855923</v>
       </c>
       <c r="S4">
-        <v>3.444523406070448</v>
+        <v>2.33497762313816</v>
       </c>
       <c r="T4">
-        <v>2.798744084940344</v>
+        <v>2.200639015261572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="C5">
         <v>600</v>
@@ -4085,1215 +6529,770 @@
         <v>600</v>
       </c>
       <c r="J5">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="K5">
-        <v>0.0002095238095240614</v>
+        <v>0.0003241067761807884</v>
       </c>
       <c r="L5">
-        <v>3.932059479963478E-05</v>
+        <v>5.711490201499378E-05</v>
       </c>
       <c r="M5">
         <v>0.0001599999999974955</v>
       </c>
       <c r="N5">
-        <v>0.0001600000000010482</v>
+        <v>0.0003199999999985437</v>
       </c>
       <c r="O5">
-        <v>0.0002399999999997959</v>
+        <v>0.00032000000000032</v>
       </c>
       <c r="P5">
-        <v>0.0002400000000015723</v>
+        <v>0.0003200000000020964</v>
       </c>
       <c r="Q5">
-        <v>0.0002400000000015723</v>
+        <v>0.0007199999999993878</v>
       </c>
       <c r="R5">
-        <v>2.863636363632922</v>
+        <v>1.851241763810939</v>
       </c>
       <c r="S5">
-        <v>3.035947093552771</v>
+        <v>1.880676972744521</v>
       </c>
       <c r="T5">
-        <v>2.709834736958006</v>
+        <v>1.822713759735035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="C6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="I6">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J6">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="K6">
-        <v>0.0003295238095241285</v>
+        <v>0.0001917043121149886</v>
       </c>
       <c r="L6">
-        <v>3.62210275101957E-05</v>
+        <v>5.11289304875751E-05</v>
       </c>
       <c r="M6">
-        <v>0.0002399999999980196</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="N6">
-        <v>0.0003199999999987657</v>
+        <v>0.0001600000000001045</v>
       </c>
       <c r="O6">
-        <v>0.0003200000000012082</v>
+        <v>0.0001600000000010482</v>
       </c>
       <c r="P6">
-        <v>0.0003200000000020964</v>
+        <v>0.0002399999999997959</v>
       </c>
       <c r="Q6">
-        <v>0.0003999999999999559</v>
+        <v>0.000560000000000116</v>
       </c>
       <c r="R6">
-        <v>2.731213872829726</v>
+        <v>1.56491002570695</v>
       </c>
       <c r="S6">
-        <v>2.825130817410812</v>
+        <v>1.602878846975589</v>
       </c>
       <c r="T6">
-        <v>2.643340263746123</v>
+        <v>1.528698383262928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="C7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I7">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J7">
-        <v>42</v>
+        <v>487</v>
       </c>
       <c r="K7">
-        <v>0.000451428571428674</v>
+        <v>0.0005741273100616255</v>
       </c>
       <c r="L7">
-        <v>4.941469261956898E-05</v>
+        <v>0.0001189702396197182</v>
       </c>
       <c r="M7">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="N7">
+        <v>0.0004799999999995919</v>
+      </c>
+      <c r="O7">
+        <v>0.000560000000000116</v>
+      </c>
+      <c r="P7">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="Q7">
+        <v>0.001599999999999824</v>
+      </c>
+      <c r="R7">
+        <v>1.56759656652354</v>
+      </c>
+      <c r="S7">
+        <v>1.596988179673878</v>
+      </c>
+      <c r="T7">
+        <v>1.53926727218384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>487</v>
+      </c>
+      <c r="C8">
+        <v>600</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="I8">
+        <v>600</v>
+      </c>
+      <c r="J8">
+        <v>487</v>
+      </c>
+      <c r="K8">
+        <v>0.0004417248459958256</v>
+      </c>
+      <c r="L8">
+        <v>0.0001182324481215775</v>
+      </c>
+      <c r="M8">
+        <v>0.000319999999994991</v>
+      </c>
+      <c r="N8">
+        <v>0.0003999999999990678</v>
+      </c>
+      <c r="O8">
+        <v>0.000400000000000067</v>
+      </c>
+      <c r="P8">
+        <v>0.00048000000000048</v>
+      </c>
+      <c r="Q8">
+        <v>0.001440000000000552</v>
+      </c>
+      <c r="R8">
+        <v>1.358311640015083</v>
+      </c>
+      <c r="S8">
+        <v>1.39138854521742</v>
+      </c>
+      <c r="T8">
+        <v>1.326770864253361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>487</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>300</v>
+      </c>
+      <c r="J9">
+        <v>487</v>
+      </c>
+      <c r="K9">
+        <v>0.0002500205338808371</v>
+      </c>
+      <c r="L9">
+        <v>0.0001056344714229683</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="O9">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="P9">
+        <v>0.0003199999999998759</v>
+      </c>
+      <c r="Q9">
+        <v>0.000880000000000436</v>
+      </c>
+      <c r="R9">
+        <v>1.19990144546681</v>
+      </c>
+      <c r="S9">
+        <v>1.246683331760501</v>
+      </c>
+      <c r="T9">
+        <v>1.156503561857765</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>0.0001568421052633177</v>
+      </c>
+      <c r="L4">
+        <v>0.0001104199320936245</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="O4">
+        <v>0.0001599999999998269</v>
+      </c>
+      <c r="P4">
+        <v>0.0002399999999984637</v>
+      </c>
+      <c r="Q4">
+        <v>0.0006400000000006401</v>
+      </c>
+      <c r="R4">
+        <v>1.9127516778504</v>
+      </c>
+      <c r="S4">
+        <v>2.272440172236081</v>
+      </c>
+      <c r="T4">
+        <v>1.651368266065022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>600</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5">
+        <v>600</v>
+      </c>
+      <c r="J5">
+        <v>76</v>
+      </c>
+      <c r="K5">
+        <v>0.0002768421052633617</v>
+      </c>
+      <c r="L5">
+        <v>0.000119333823384391</v>
+      </c>
+      <c r="M5">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="N5">
+        <v>0.0002399999999980196</v>
+      </c>
+      <c r="O5">
+        <v>0.000240000000000351</v>
+      </c>
+      <c r="P5">
+        <v>0.00032000000000032</v>
+      </c>
+      <c r="Q5">
+        <v>0.0009600000000009601</v>
+      </c>
+      <c r="R5">
+        <v>2.167300380226541</v>
+      </c>
+      <c r="S5">
+        <v>2.399879144683923</v>
+      </c>
+      <c r="T5">
+        <v>1.975818479265957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>300</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>76</v>
+      </c>
+      <c r="K6">
+        <v>0.000120000000000044</v>
+      </c>
+      <c r="L6">
+        <v>7.332121111951857E-05</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>7.999999999963592E-05</v>
+      </c>
+      <c r="O6">
+        <v>8.00000000005241E-05</v>
+      </c>
+      <c r="P6">
+        <v>0.0001600000000010482</v>
+      </c>
+      <c r="Q6">
+        <v>0.0003200000000020964</v>
+      </c>
+      <c r="R6">
+        <v>2.499999999999082</v>
+      </c>
+      <c r="S6">
+        <v>2.898120029505924</v>
+      </c>
+      <c r="T6">
+        <v>2.198049882305035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>900</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>900</v>
+      </c>
+      <c r="I7">
+        <v>900</v>
+      </c>
+      <c r="J7">
+        <v>76</v>
+      </c>
+      <c r="K7">
+        <v>0.0003926315789474543</v>
+      </c>
+      <c r="L7">
+        <v>0.0001326988412011869</v>
+      </c>
+      <c r="M7">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="N7">
         <v>0.0003199999999985437</v>
       </c>
-      <c r="N7">
-        <v>0.0004000000000008441</v>
-      </c>
       <c r="O7">
-        <v>0.0004799999999995919</v>
+        <v>0.0003999999999990678</v>
       </c>
       <c r="P7">
         <v>0.0004799999999995919</v>
       </c>
       <c r="Q7">
-        <v>0.000560000000000116</v>
+        <v>0.001120000000000232</v>
       </c>
       <c r="R7">
-        <v>2.658227848100662</v>
+        <v>2.292225201071885</v>
       </c>
       <c r="S7">
-        <v>2.749242547322258</v>
+        <v>2.480724488539776</v>
       </c>
       <c r="T7">
-        <v>2.573046194800859</v>
+        <v>2.130349369977552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="H8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="I8">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="J8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.000586666666666767</v>
+        <v>0.0002357894736841366</v>
       </c>
       <c r="L8">
-        <v>6.288458908775713E-05</v>
+        <v>8.041995039194875E-05</v>
       </c>
       <c r="M8">
-        <v>0.0003999999999990678</v>
+        <v>8.000000000008001E-05</v>
       </c>
       <c r="N8">
+        <v>0.0001600000000008261</v>
+      </c>
+      <c r="O8">
+        <v>0.0002399999999997959</v>
+      </c>
+      <c r="P8">
+        <v>0.0002400000000015723</v>
+      </c>
+      <c r="Q8">
         <v>0.000560000000000116</v>
       </c>
-      <c r="O8">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="P8">
-        <v>0.0006400000000006401</v>
-      </c>
-      <c r="Q8">
-        <v>0.0007200000000011642</v>
-      </c>
       <c r="R8">
-        <v>2.556818181817744</v>
+        <v>2.544642857143654</v>
       </c>
       <c r="S8">
-        <v>2.642481765648987</v>
+        <v>2.755974146234702</v>
       </c>
       <c r="T8">
-        <v>2.476534259738182</v>
+        <v>2.363413567811173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="F9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="G9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="H9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="I9">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="J9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.0006971428571431208</v>
+        <v>0.0001157894736840926</v>
       </c>
       <c r="L9">
-        <v>9.058847485745412E-05</v>
+        <v>5.289645628668587E-05</v>
       </c>
       <c r="M9">
-        <v>0.0004799999999995919</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.0006400000000006401</v>
+        <v>8.000000000008001E-05</v>
       </c>
       <c r="O9">
-        <v>0.0007199999999996098</v>
+        <v>8.00000000005241E-05</v>
       </c>
       <c r="P9">
-        <v>0.0007200000000011642</v>
+        <v>0.00016000000000016</v>
       </c>
       <c r="Q9">
-        <v>0.000880000000000436</v>
+        <v>0.000319999999994991</v>
       </c>
       <c r="R9">
-        <v>2.581967213113778</v>
+        <v>2.59090909091173</v>
       </c>
       <c r="S9">
-        <v>2.687586958734533</v>
+        <v>2.887477876571346</v>
       </c>
       <c r="T9">
-        <v>2.484335083051584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>300</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10">
-        <v>300</v>
-      </c>
-      <c r="I10">
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0.0001123809523812022</v>
-      </c>
-      <c r="L10">
-        <v>3.974366179324141E-05</v>
-      </c>
-      <c r="M10">
-        <v>7.999999999697138E-05</v>
-      </c>
-      <c r="N10">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O10">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="P10">
-        <v>0.00016000000000016</v>
-      </c>
-      <c r="Q10">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="R10">
-        <v>2.669491525417794</v>
-      </c>
-      <c r="S10">
-        <v>2.989206117844863</v>
-      </c>
-      <c r="T10">
-        <v>2.411559870426181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>600</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>600</v>
-      </c>
-      <c r="F11">
-        <v>600</v>
-      </c>
-      <c r="G11">
-        <v>600</v>
-      </c>
-      <c r="H11">
-        <v>600</v>
-      </c>
-      <c r="I11">
-        <v>600</v>
-      </c>
-      <c r="J11">
-        <v>42</v>
-      </c>
-      <c r="K11">
-        <v>0.0002323809523812694</v>
-      </c>
-      <c r="L11">
-        <v>3.44864429928524E-05</v>
-      </c>
-      <c r="M11">
-        <v>0.0001599999999974955</v>
-      </c>
-      <c r="N11">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="O11">
-        <v>0.000240000000000018</v>
-      </c>
-      <c r="P11">
-        <v>0.0002400000000015723</v>
-      </c>
-      <c r="Q11">
-        <v>0.0003199999999998759</v>
-      </c>
-      <c r="R11">
-        <v>2.581967213111232</v>
-      </c>
-      <c r="S11">
-        <v>2.70329864654048</v>
-      </c>
-      <c r="T11">
-        <v>2.471059315735352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>900</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>900</v>
-      </c>
-      <c r="F12">
-        <v>900</v>
-      </c>
-      <c r="G12">
-        <v>900</v>
-      </c>
-      <c r="H12">
-        <v>900</v>
-      </c>
-      <c r="I12">
-        <v>900</v>
-      </c>
-      <c r="J12">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>0.0003542857142858148</v>
-      </c>
-      <c r="L12">
-        <v>5.041984013030076E-05</v>
-      </c>
-      <c r="M12">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="N12">
-        <v>0.0003199999999994319</v>
-      </c>
-      <c r="O12">
-        <v>0.0003200000000020964</v>
-      </c>
-      <c r="P12">
-        <v>0.0003999999999990678</v>
-      </c>
-      <c r="Q12">
-        <v>0.000480000000000036</v>
-      </c>
-      <c r="R12">
-        <v>2.54032258064444</v>
-      </c>
-      <c r="S12">
-        <v>2.654577431423947</v>
-      </c>
-      <c r="T12">
-        <v>2.435497099069094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13">
-        <v>42</v>
-      </c>
-      <c r="C13">
-        <v>1200</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1200</v>
-      </c>
-      <c r="F13">
-        <v>1200</v>
-      </c>
-      <c r="G13">
-        <v>1200</v>
-      </c>
-      <c r="H13">
-        <v>1200</v>
-      </c>
-      <c r="I13">
-        <v>1200</v>
-      </c>
-      <c r="J13">
-        <v>42</v>
-      </c>
-      <c r="K13">
-        <v>0.0004895238095239078</v>
-      </c>
-      <c r="L13">
-        <v>6.420061472832151E-05</v>
-      </c>
-      <c r="M13">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="N13">
-        <v>0.0004799999999995919</v>
-      </c>
-      <c r="O13">
-        <v>0.0004799999999995919</v>
-      </c>
-      <c r="P13">
-        <v>0.0005600000000000049</v>
-      </c>
-      <c r="Q13">
-        <v>0.0006400000000006401</v>
-      </c>
-      <c r="R13">
-        <v>2.451361867703788</v>
-      </c>
-      <c r="S13">
-        <v>2.552608601315848</v>
-      </c>
-      <c r="T13">
-        <v>2.357840424112022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>1500</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1500</v>
-      </c>
-      <c r="F14">
-        <v>1500</v>
-      </c>
-      <c r="G14">
-        <v>1500</v>
-      </c>
-      <c r="H14">
-        <v>1500</v>
-      </c>
-      <c r="I14">
-        <v>1500</v>
-      </c>
-      <c r="J14">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>0.0006000000000002617</v>
-      </c>
-      <c r="L14">
-        <v>9.555996712552167E-05</v>
-      </c>
-      <c r="M14">
-        <v>0.0004000000000008441</v>
-      </c>
-      <c r="N14">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="O14">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="P14">
-        <v>0.0006400000000006401</v>
-      </c>
-      <c r="Q14">
-        <v>0.0008000000000016882</v>
-      </c>
-      <c r="R14">
-        <v>2.49999999999891</v>
-      </c>
-      <c r="S14">
-        <v>2.626513173795065</v>
-      </c>
-      <c r="T14">
-        <v>2.385114454218723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>300</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>0.0001200000000000671</v>
-      </c>
-      <c r="L15">
-        <v>4.048486618791331E-05</v>
-      </c>
-      <c r="M15">
-        <v>7.999999999697138E-05</v>
-      </c>
-      <c r="N15">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O15">
-        <v>0.0001199999999990098</v>
-      </c>
-      <c r="P15">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="Q15">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="R15">
-        <v>2.499999999998601</v>
-      </c>
-      <c r="S15">
-        <v>2.784068301016651</v>
-      </c>
-      <c r="T15">
-        <v>2.268533528762033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>600</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>600</v>
-      </c>
-      <c r="F16">
-        <v>600</v>
-      </c>
-      <c r="G16">
-        <v>600</v>
-      </c>
-      <c r="H16">
-        <v>600</v>
-      </c>
-      <c r="I16">
-        <v>600</v>
-      </c>
-      <c r="J16">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.0002419047619046126</v>
-      </c>
-      <c r="L16">
-        <v>4.139271146131254E-05</v>
-      </c>
-      <c r="M16">
-        <v>0.0001599999999992718</v>
-      </c>
-      <c r="N16">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="O16">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="P16">
-        <v>0.0002400000000015723</v>
-      </c>
-      <c r="Q16">
-        <v>0.0003200000000020964</v>
-      </c>
-      <c r="R16">
-        <v>2.480314960631452</v>
-      </c>
-      <c r="S16">
-        <v>2.615676378603541</v>
-      </c>
-      <c r="T16">
-        <v>2.358274125530468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>900</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>900</v>
-      </c>
-      <c r="F17">
-        <v>900</v>
-      </c>
-      <c r="G17">
-        <v>900</v>
-      </c>
-      <c r="H17">
-        <v>900</v>
-      </c>
-      <c r="I17">
-        <v>900</v>
-      </c>
-      <c r="J17">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.0003771428571427056</v>
-      </c>
-      <c r="L17">
-        <v>6.193173717651169E-05</v>
-      </c>
-      <c r="M17">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="N17">
-        <v>0.00032000000000032</v>
-      </c>
-      <c r="O17">
-        <v>0.0003999999999990678</v>
-      </c>
-      <c r="P17">
-        <v>0.0004000000000006221</v>
-      </c>
-      <c r="Q17">
-        <v>0.0004799999999995919</v>
-      </c>
-      <c r="R17">
-        <v>2.386363636364595</v>
-      </c>
-      <c r="S17">
-        <v>2.511072720995853</v>
-      </c>
-      <c r="T17">
-        <v>2.273455495010481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>1200</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1200</v>
-      </c>
-      <c r="F18">
-        <v>1200</v>
-      </c>
-      <c r="G18">
-        <v>1200</v>
-      </c>
-      <c r="H18">
-        <v>1200</v>
-      </c>
-      <c r="I18">
-        <v>1200</v>
-      </c>
-      <c r="J18">
-        <v>42</v>
-      </c>
-      <c r="K18">
-        <v>0.0004876190476190595</v>
-      </c>
-      <c r="L18">
-        <v>9.317723797748691E-05</v>
-      </c>
-      <c r="M18">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="N18">
-        <v>0.0004000000000026205</v>
-      </c>
-      <c r="O18">
-        <v>0.0004799999999995919</v>
-      </c>
-      <c r="P18">
-        <v>0.000480000000000369</v>
-      </c>
-      <c r="Q18">
-        <v>0.0007200000000011642</v>
-      </c>
-      <c r="R18">
-        <v>2.46093749999994</v>
-      </c>
-      <c r="S18">
-        <v>2.611880840306865</v>
-      </c>
-      <c r="T18">
-        <v>2.326487349627346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>300</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19">
-        <v>300</v>
-      </c>
-      <c r="G19">
-        <v>300</v>
-      </c>
-      <c r="H19">
-        <v>300</v>
-      </c>
-      <c r="I19">
-        <v>300</v>
-      </c>
-      <c r="J19">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.0001219047619045455</v>
-      </c>
-      <c r="L19">
-        <v>5.071383585841942E-05</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O19">
-        <v>0.0001199999999990098</v>
-      </c>
-      <c r="P19">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="Q19">
-        <v>0.0002399999999997959</v>
-      </c>
-      <c r="R19">
-        <v>2.460937500004369</v>
-      </c>
-      <c r="S19">
-        <v>2.815126557849265</v>
-      </c>
-      <c r="T19">
-        <v>2.185913728239433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20">
-        <v>42</v>
-      </c>
-      <c r="C20">
-        <v>600</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>600</v>
-      </c>
-      <c r="F20">
-        <v>600</v>
-      </c>
-      <c r="G20">
-        <v>600</v>
-      </c>
-      <c r="H20">
-        <v>600</v>
-      </c>
-      <c r="I20">
-        <v>600</v>
-      </c>
-      <c r="J20">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.0002571428571426385</v>
-      </c>
-      <c r="L20">
-        <v>6.255868325118826E-05</v>
-      </c>
-      <c r="M20">
-        <v>0.0001599999999974955</v>
-      </c>
-      <c r="N20">
-        <v>0.0002399999999980196</v>
-      </c>
-      <c r="O20">
-        <v>0.0002400000000015723</v>
-      </c>
-      <c r="P20">
-        <v>0.0003199999999985437</v>
-      </c>
-      <c r="Q20">
-        <v>0.0003999999999990678</v>
-      </c>
-      <c r="R20">
-        <v>2.333333333335317</v>
-      </c>
-      <c r="S20">
-        <v>2.518649033177844</v>
-      </c>
-      <c r="T20">
-        <v>2.173418784764289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>900</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>900</v>
-      </c>
-      <c r="F21">
-        <v>900</v>
-      </c>
-      <c r="G21">
-        <v>900</v>
-      </c>
-      <c r="H21">
-        <v>900</v>
-      </c>
-      <c r="I21">
-        <v>900</v>
-      </c>
-      <c r="J21">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.0003676190476189923</v>
-      </c>
-      <c r="L21">
-        <v>9.52483153631563E-05</v>
-      </c>
-      <c r="M21">
-        <v>0.0001599999999992718</v>
-      </c>
-      <c r="N21">
-        <v>0.0003199999999995429</v>
-      </c>
-      <c r="O21">
-        <v>0.0003999999999990678</v>
-      </c>
-      <c r="P21">
-        <v>0.0004000000000008441</v>
-      </c>
-      <c r="Q21">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="R21">
-        <v>2.448186528497777</v>
-      </c>
-      <c r="S21">
-        <v>2.656335177961409</v>
-      </c>
-      <c r="T21">
-        <v>2.27028825772976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>300</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>300</v>
-      </c>
-      <c r="F22">
-        <v>300</v>
-      </c>
-      <c r="G22">
-        <v>300</v>
-      </c>
-      <c r="H22">
-        <v>300</v>
-      </c>
-      <c r="I22">
-        <v>300</v>
-      </c>
-      <c r="J22">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.000135238095238093</v>
-      </c>
-      <c r="L22">
-        <v>6.489158294985458E-05</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="O22">
-        <v>0.0001599999999992718</v>
-      </c>
-      <c r="P22">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="Q22">
-        <v>0.0002400000000015723</v>
-      </c>
-      <c r="R22">
-        <v>2.218309859154966</v>
-      </c>
-      <c r="S22">
-        <v>2.594872035138776</v>
-      </c>
-      <c r="T22">
-        <v>1.937189185359482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <v>600</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>600</v>
-      </c>
-      <c r="F23">
-        <v>600</v>
-      </c>
-      <c r="G23">
-        <v>600</v>
-      </c>
-      <c r="H23">
-        <v>600</v>
-      </c>
-      <c r="I23">
-        <v>600</v>
-      </c>
-      <c r="J23">
-        <v>42</v>
-      </c>
-      <c r="K23">
-        <v>0.0002457142857144469</v>
-      </c>
-      <c r="L23">
-        <v>0.0001005628757845025</v>
-      </c>
-      <c r="M23">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="N23">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="O23">
-        <v>0.0002400000000009062</v>
-      </c>
-      <c r="P23">
-        <v>0.0002400000000015723</v>
-      </c>
-      <c r="Q23">
-        <v>0.000560000000000116</v>
-      </c>
-      <c r="R23">
-        <v>2.441860465114678</v>
-      </c>
-      <c r="S23">
-        <v>2.78680138870157</v>
-      </c>
-      <c r="T23">
-        <v>2.172905512849949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>300</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>300</v>
-      </c>
-      <c r="F24">
-        <v>300</v>
-      </c>
-      <c r="G24">
-        <v>300</v>
-      </c>
-      <c r="H24">
-        <v>300</v>
-      </c>
-      <c r="I24">
-        <v>300</v>
-      </c>
-      <c r="J24">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>0.0001104761904763538</v>
-      </c>
-      <c r="L24">
-        <v>9.507256229965359E-05</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1.999999999924285E-05</v>
-      </c>
-      <c r="O24">
-        <v>8.00000000005241E-05</v>
-      </c>
-      <c r="P24">
-        <v>0.0001600000000010482</v>
-      </c>
-      <c r="Q24">
-        <v>0.0003999999999990678</v>
-      </c>
-      <c r="R24">
-        <v>2.715517241375295</v>
-      </c>
-      <c r="S24">
-        <v>3.67093892568478</v>
-      </c>
-      <c r="T24">
-        <v>2.15471701950728</v>
+        <v>2.349586382937416</v>
       </c>
     </row>
   </sheetData>
